--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\Documents\Laura\Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E865B1-1866-4777-9BB1-94CD5CFCADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4F779-7426-4A50-8C2B-169E3D10D196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="-9990" yWindow="-28695" windowWidth="17340" windowHeight="15285" activeTab="1" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="532">
   <si>
     <t>20937885_2022-06-04_10_56_12_CDT_(Data_CDT).csv</t>
   </si>
@@ -816,15 +816,6 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>am/pm</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
     <t>point_name</t>
   </si>
   <si>
@@ -1641,15 +1632,26 @@
     <t>airlogger cammarata</t>
   </si>
   <si>
-    <t>disturbance_time_minutes</t>
+    <t>disturbance_time_min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1677,10 +1679,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2017,45 +2026,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CD237-8741-4522-BD73-50EE967D5C1A}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="52.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.05078125" customWidth="1"/>
+    <col min="3" max="3" width="50.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.47265625" customWidth="1"/>
+    <col min="5" max="5" width="9.62890625" customWidth="1"/>
+    <col min="6" max="6" width="18.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2067,12 +2078,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2084,12 +2095,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44760</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -2101,12 +2112,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44800</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -2118,15 +2129,15 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44800</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -2138,15 +2149,15 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44814</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -2158,12 +2169,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44821</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
         <v>125</v>
@@ -2175,12 +2186,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
         <v>156</v>
@@ -2192,12 +2203,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44849</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
         <v>195</v>
@@ -2209,12 +2220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44867</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s">
         <v>219</v>
@@ -2226,12 +2237,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44874</v>
       </c>
       <c r="B12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
@@ -2243,12 +2254,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44715</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -2260,12 +2271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44756</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -2277,12 +2288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44760</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -2294,12 +2305,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44800</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
@@ -2311,12 +2322,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44814</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>102</v>
@@ -2328,12 +2339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44821</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
@@ -2345,12 +2356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44829</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
         <v>149</v>
@@ -2362,12 +2373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
       <c r="B20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C20" t="s">
         <v>157</v>
@@ -2379,12 +2390,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44839</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
@@ -2396,12 +2407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C22" t="s">
         <v>196</v>
@@ -2413,12 +2424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -2430,12 +2441,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44874</v>
       </c>
       <c r="B24" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C24" t="s">
         <v>220</v>
@@ -2447,12 +2458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44715</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2464,12 +2475,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44756</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2481,12 +2492,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44760</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
@@ -2498,12 +2509,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44800</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
@@ -2515,12 +2526,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44814</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
@@ -2532,12 +2543,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44821</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
         <v>127</v>
@@ -2549,12 +2560,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44829</v>
       </c>
       <c r="B31" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>150</v>
@@ -2566,12 +2577,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
@@ -2583,12 +2594,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44839</v>
       </c>
       <c r="B33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C33" t="s">
         <v>181</v>
@@ -2600,12 +2611,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44849</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C34" t="s">
         <v>197</v>
@@ -2617,12 +2628,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44867</v>
       </c>
       <c r="B35" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C35" t="s">
         <v>221</v>
@@ -2634,12 +2645,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44874</v>
       </c>
       <c r="B36" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C36" t="s">
         <v>221</v>
@@ -2651,12 +2662,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44715</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2668,12 +2679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44756</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -2685,12 +2696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44760</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2702,12 +2713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44800</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
@@ -2719,12 +2730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44814</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
@@ -2736,12 +2747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
         <v>128</v>
@@ -2753,12 +2764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44829</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C43" t="s">
         <v>151</v>
@@ -2770,12 +2781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44835</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C44" t="s">
         <v>159</v>
@@ -2787,12 +2798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44839</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
         <v>182</v>
@@ -2804,12 +2815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44849</v>
       </c>
       <c r="B46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C46" t="s">
         <v>198</v>
@@ -2821,12 +2832,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44867</v>
       </c>
       <c r="B47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C47" t="s">
         <v>222</v>
@@ -2838,12 +2849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44874</v>
       </c>
       <c r="B48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
         <v>222</v>
@@ -2855,12 +2866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44715</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -2872,12 +2883,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44756</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -2889,12 +2900,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44760</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C51" t="s">
         <v>55</v>
@@ -2906,12 +2917,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44800</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
         <v>81</v>
@@ -2923,12 +2934,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44814</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
@@ -2940,12 +2951,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C54" t="s">
         <v>129</v>
@@ -2957,12 +2968,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44829</v>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C55" t="s">
         <v>152</v>
@@ -2974,12 +2985,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44835</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
@@ -2991,12 +3002,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44839</v>
       </c>
       <c r="B57" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C57" t="s">
         <v>183</v>
@@ -3008,12 +3019,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44849</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C58" t="s">
         <v>199</v>
@@ -3025,12 +3036,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44867</v>
       </c>
       <c r="B59" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
         <v>223</v>
@@ -3042,12 +3053,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44874</v>
       </c>
       <c r="B60" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C60" t="s">
         <v>223</v>
@@ -3059,12 +3070,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44715</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3076,12 +3087,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44756</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
@@ -3093,12 +3104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44760</v>
       </c>
       <c r="B63" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
         <v>56</v>
@@ -3110,12 +3121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44800</v>
       </c>
       <c r="B64" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
         <v>82</v>
@@ -3127,12 +3138,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44814</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
@@ -3144,12 +3155,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
       <c r="B66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C66" t="s">
         <v>130</v>
@@ -3161,12 +3172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44829</v>
       </c>
       <c r="B67" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
         <v>153</v>
@@ -3178,12 +3189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44835</v>
       </c>
       <c r="B68" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
@@ -3195,12 +3206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44839</v>
       </c>
       <c r="B69" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
@@ -3212,12 +3223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44849</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C70" t="s">
         <v>200</v>
@@ -3229,12 +3240,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44867</v>
       </c>
       <c r="B71" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
         <v>224</v>
@@ -3246,12 +3257,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44874</v>
       </c>
       <c r="B72" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C72" t="s">
         <v>224</v>
@@ -3263,12 +3274,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44715</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -3280,12 +3291,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -3297,12 +3308,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44760</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
         <v>57</v>
@@ -3314,12 +3325,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44800</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -3331,12 +3342,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44814</v>
       </c>
       <c r="B77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C77" t="s">
         <v>107</v>
@@ -3348,12 +3359,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44821</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
         <v>131</v>
@@ -3365,12 +3376,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44829</v>
       </c>
       <c r="B79" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
@@ -3382,12 +3393,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44835</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
@@ -3399,12 +3410,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44839</v>
       </c>
       <c r="B81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C81" t="s">
         <v>185</v>
@@ -3416,12 +3427,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44849</v>
       </c>
       <c r="B82" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C82" t="s">
         <v>201</v>
@@ -3433,12 +3444,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44867</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C83" t="s">
         <v>225</v>
@@ -3450,12 +3461,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44874</v>
       </c>
       <c r="B84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C84" t="s">
         <v>225</v>
@@ -3467,12 +3478,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44715</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -3484,12 +3495,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
         <v>33</v>
@@ -3501,12 +3512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44760</v>
       </c>
       <c r="B87" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C87" t="s">
         <v>58</v>
@@ -3518,12 +3529,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44800</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C88" t="s">
         <v>84</v>
@@ -3535,12 +3546,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44814</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C89" t="s">
         <v>108</v>
@@ -3552,12 +3563,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44821</v>
       </c>
       <c r="B90" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C90" t="s">
         <v>132</v>
@@ -3569,12 +3580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44835</v>
       </c>
       <c r="B91" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C91" t="s">
         <v>163</v>
@@ -3586,12 +3597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44839</v>
       </c>
       <c r="B92" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C92" t="s">
         <v>186</v>
@@ -3603,12 +3614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44849</v>
       </c>
       <c r="B93" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C93" t="s">
         <v>202</v>
@@ -3620,12 +3631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44867</v>
       </c>
       <c r="B94" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -3637,12 +3648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44874</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -3654,12 +3665,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44715</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -3671,12 +3682,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C97" t="s">
         <v>34</v>
@@ -3688,12 +3699,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44760</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
         <v>59</v>
@@ -3705,12 +3716,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44800</v>
       </c>
       <c r="B99" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -3722,12 +3733,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44814</v>
       </c>
       <c r="B100" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
         <v>109</v>
@@ -3739,12 +3750,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44821</v>
       </c>
       <c r="B101" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
         <v>133</v>
@@ -3756,12 +3767,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44835</v>
       </c>
       <c r="B102" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C102" t="s">
         <v>164</v>
@@ -3773,12 +3784,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44839</v>
       </c>
       <c r="B103" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C103" t="s">
         <v>187</v>
@@ -3790,12 +3801,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44849</v>
       </c>
       <c r="B104" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
@@ -3807,12 +3818,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44867</v>
       </c>
       <c r="B105" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C105" t="s">
         <v>227</v>
@@ -3824,12 +3835,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44874</v>
       </c>
       <c r="B106" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C106" t="s">
         <v>227</v>
@@ -3841,12 +3852,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44715</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -3858,12 +3869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
       <c r="B108" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
         <v>35</v>
@@ -3875,12 +3886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44760</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C109" t="s">
         <v>60</v>
@@ -3892,12 +3903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44800</v>
       </c>
       <c r="B110" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
         <v>86</v>
@@ -3909,12 +3920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44814</v>
       </c>
       <c r="B111" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C111" t="s">
         <v>110</v>
@@ -3926,12 +3937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44821</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C112" t="s">
         <v>134</v>
@@ -3943,12 +3954,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44835</v>
       </c>
       <c r="B113" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C113" t="s">
         <v>165</v>
@@ -3960,12 +3971,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44839</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C114" t="s">
         <v>188</v>
@@ -3977,12 +3988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44849</v>
       </c>
       <c r="B115" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3994,12 +4005,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44867</v>
       </c>
       <c r="B116" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C116" t="s">
         <v>228</v>
@@ -4011,12 +4022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44874</v>
       </c>
       <c r="B117" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C117" t="s">
         <v>228</v>
@@ -4028,12 +4039,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44715</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -4045,12 +4056,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44756</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
@@ -4062,12 +4073,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44760</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C120" t="s">
         <v>61</v>
@@ -4079,12 +4090,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44800</v>
       </c>
       <c r="B121" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C121" t="s">
         <v>87</v>
@@ -4096,12 +4107,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
       <c r="B122" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C122" t="s">
         <v>111</v>
@@ -4113,12 +4124,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44821</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C123" t="s">
         <v>135</v>
@@ -4130,12 +4141,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44835</v>
       </c>
       <c r="B124" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C124" t="s">
         <v>166</v>
@@ -4147,12 +4158,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44839</v>
       </c>
       <c r="B125" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
@@ -4164,12 +4175,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44849</v>
       </c>
       <c r="B126" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
         <v>205</v>
@@ -4181,12 +4192,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44867</v>
       </c>
       <c r="B127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C127" t="s">
         <v>229</v>
@@ -4198,12 +4209,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44874</v>
       </c>
       <c r="B128" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
         <v>229</v>
@@ -4215,12 +4226,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44715</v>
       </c>
       <c r="B129" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -4232,12 +4243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44756</v>
       </c>
       <c r="B130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C130" t="s">
         <v>37</v>
@@ -4249,12 +4260,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44760</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C131" t="s">
         <v>62</v>
@@ -4266,12 +4277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44800</v>
       </c>
       <c r="B132" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C132" t="s">
         <v>88</v>
@@ -4283,12 +4294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44814</v>
       </c>
       <c r="B133" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C133" t="s">
         <v>112</v>
@@ -4300,12 +4311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44821</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
@@ -4317,12 +4328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44835</v>
       </c>
       <c r="B135" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C135" t="s">
         <v>167</v>
@@ -4334,12 +4345,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44839</v>
       </c>
       <c r="B136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C136" t="s">
         <v>190</v>
@@ -4351,12 +4362,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44849</v>
       </c>
       <c r="B137" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C137" t="s">
         <v>206</v>
@@ -4368,12 +4379,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44867</v>
       </c>
       <c r="B138" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C138" t="s">
         <v>230</v>
@@ -4385,12 +4396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44874</v>
       </c>
       <c r="B139" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C139" t="s">
         <v>230</v>
@@ -4402,12 +4413,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44715</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -4419,15 +4430,15 @@
         <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44756</v>
       </c>
       <c r="B141" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C141" t="s">
         <v>38</v>
@@ -4439,12 +4450,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
       <c r="B142" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C142" t="s">
         <v>63</v>
@@ -4456,12 +4467,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44800</v>
       </c>
       <c r="B143" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s">
         <v>89</v>
@@ -4473,12 +4484,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44814</v>
       </c>
       <c r="B144" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C144" t="s">
         <v>113</v>
@@ -4490,12 +4501,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44821</v>
       </c>
       <c r="B145" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C145" t="s">
         <v>137</v>
@@ -4507,12 +4518,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44829</v>
       </c>
       <c r="B146" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C146" t="s">
         <v>155</v>
@@ -4524,12 +4535,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44835</v>
       </c>
       <c r="B147" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C147" t="s">
         <v>168</v>
@@ -4541,12 +4552,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44839</v>
       </c>
       <c r="B148" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C148" t="s">
         <v>191</v>
@@ -4558,12 +4569,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44849</v>
       </c>
       <c r="B149" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C149" t="s">
         <v>207</v>
@@ -4575,12 +4586,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44867</v>
       </c>
       <c r="B150" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C150" t="s">
         <v>231</v>
@@ -4592,12 +4603,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44874</v>
       </c>
       <c r="B151" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C151" t="s">
         <v>231</v>
@@ -4609,12 +4620,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44715</v>
       </c>
       <c r="B152" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -4626,12 +4637,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44756</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
         <v>39</v>
@@ -4643,12 +4654,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
       <c r="B154" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C154" t="s">
         <v>64</v>
@@ -4660,12 +4671,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44800</v>
       </c>
       <c r="B155" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
         <v>90</v>
@@ -4677,12 +4688,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44814</v>
       </c>
       <c r="B156" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C156" t="s">
         <v>114</v>
@@ -4694,12 +4705,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44821</v>
       </c>
       <c r="B157" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C157" t="s">
         <v>138</v>
@@ -4711,12 +4722,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44835</v>
       </c>
       <c r="B158" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C158" t="s">
         <v>169</v>
@@ -4728,12 +4739,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44839</v>
       </c>
       <c r="B159" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C159" t="s">
         <v>192</v>
@@ -4745,12 +4756,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>44849</v>
       </c>
       <c r="B160" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C160" t="s">
         <v>208</v>
@@ -4762,12 +4773,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>44867</v>
       </c>
       <c r="B161" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C161" t="s">
         <v>232</v>
@@ -4779,12 +4790,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>44874</v>
       </c>
       <c r="B162" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C162" t="s">
         <v>232</v>
@@ -4796,12 +4807,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>44715</v>
       </c>
       <c r="B163" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
@@ -4813,12 +4824,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44756</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C164" t="s">
         <v>40</v>
@@ -4830,12 +4841,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
         <v>65</v>
@@ -4847,12 +4858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44800</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C166" t="s">
         <v>91</v>
@@ -4864,12 +4875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44814</v>
       </c>
       <c r="B167" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C167" t="s">
         <v>115</v>
@@ -4881,12 +4892,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44821</v>
       </c>
       <c r="B168" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C168" t="s">
         <v>139</v>
@@ -4898,12 +4909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44835</v>
       </c>
       <c r="B169" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C169" t="s">
         <v>170</v>
@@ -4915,12 +4926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44839</v>
       </c>
       <c r="B170" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C170" t="s">
         <v>193</v>
@@ -4932,12 +4943,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44849</v>
       </c>
       <c r="B171" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C171" t="s">
         <v>209</v>
@@ -4949,12 +4960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44867</v>
       </c>
       <c r="B172" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C172" t="s">
         <v>233</v>
@@ -4966,12 +4977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44874</v>
       </c>
       <c r="B173" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C173" t="s">
         <v>233</v>
@@ -4983,12 +4994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44715</v>
       </c>
       <c r="B174" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -5000,12 +5011,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44756</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C175" t="s">
         <v>41</v>
@@ -5017,12 +5028,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44760</v>
       </c>
       <c r="B176" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C176" t="s">
         <v>66</v>
@@ -5034,12 +5045,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44800</v>
       </c>
       <c r="B177" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C177" t="s">
         <v>92</v>
@@ -5051,12 +5062,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44814</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C178" t="s">
         <v>116</v>
@@ -5068,12 +5079,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44821</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C179" t="s">
         <v>140</v>
@@ -5085,12 +5096,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44835</v>
       </c>
       <c r="B180" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C180" t="s">
         <v>171</v>
@@ -5102,12 +5113,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44839</v>
       </c>
       <c r="B181" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C181" t="s">
         <v>194</v>
@@ -5119,12 +5130,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44849</v>
       </c>
       <c r="B182" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C182" t="s">
         <v>210</v>
@@ -5136,12 +5147,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44867</v>
       </c>
       <c r="B183" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C183" t="s">
         <v>234</v>
@@ -5153,12 +5164,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44874</v>
       </c>
       <c r="B184" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C184" t="s">
         <v>234</v>
@@ -5170,12 +5181,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44715</v>
       </c>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -5187,12 +5198,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44756</v>
       </c>
       <c r="B186" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C186" t="s">
         <v>42</v>
@@ -5204,12 +5215,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44760</v>
       </c>
       <c r="B187" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C187" t="s">
         <v>67</v>
@@ -5221,12 +5232,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44715</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
@@ -5238,12 +5249,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44756</v>
       </c>
       <c r="B189" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C189" t="s">
         <v>43</v>
@@ -5255,12 +5266,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44760</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -5272,12 +5283,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
       <c r="B191" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C191" t="s">
         <v>93</v>
@@ -5289,12 +5300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44814</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C192" t="s">
         <v>117</v>
@@ -5306,12 +5317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44821</v>
       </c>
       <c r="B193" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C193" t="s">
         <v>141</v>
@@ -5323,12 +5334,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44835</v>
       </c>
       <c r="B194" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C194" t="s">
         <v>172</v>
@@ -5340,12 +5351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44849</v>
       </c>
       <c r="B195" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C195" t="s">
         <v>211</v>
@@ -5357,12 +5368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44867</v>
       </c>
       <c r="B196" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C196" t="s">
         <v>235</v>
@@ -5374,12 +5385,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44874</v>
       </c>
       <c r="B197" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C197" t="s">
         <v>235</v>
@@ -5391,12 +5402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44715</v>
       </c>
       <c r="B198" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C198" t="s">
         <v>18</v>
@@ -5408,12 +5419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44756</v>
       </c>
       <c r="B199" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C199" t="s">
         <v>44</v>
@@ -5425,12 +5436,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44760</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C200" t="s">
         <v>69</v>
@@ -5442,12 +5453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
       <c r="B201" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C201" t="s">
         <v>94</v>
@@ -5459,12 +5470,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44814</v>
       </c>
       <c r="B202" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C202" t="s">
         <v>118</v>
@@ -5476,12 +5487,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44821</v>
       </c>
       <c r="B203" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C203" t="s">
         <v>142</v>
@@ -5493,12 +5504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44835</v>
       </c>
       <c r="B204" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C204" t="s">
         <v>173</v>
@@ -5510,12 +5521,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44849</v>
       </c>
       <c r="B205" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5527,12 +5538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44867</v>
       </c>
       <c r="B206" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C206" t="s">
         <v>236</v>
@@ -5544,12 +5555,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44874</v>
       </c>
       <c r="B207" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C207" t="s">
         <v>236</v>
@@ -5561,12 +5572,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44715</v>
       </c>
       <c r="B208" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C208" t="s">
         <v>19</v>
@@ -5578,12 +5589,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44756</v>
       </c>
       <c r="B209" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C209" t="s">
         <v>45</v>
@@ -5595,12 +5606,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44760</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C210" t="s">
         <v>70</v>
@@ -5612,12 +5623,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
       <c r="B211" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C211" t="s">
         <v>95</v>
@@ -5629,12 +5640,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44814</v>
       </c>
       <c r="B212" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C212" t="s">
         <v>119</v>
@@ -5646,12 +5657,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44821</v>
       </c>
       <c r="B213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C213" t="s">
         <v>143</v>
@@ -5663,12 +5674,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44835</v>
       </c>
       <c r="B214" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C214" t="s">
         <v>174</v>
@@ -5680,12 +5691,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44849</v>
       </c>
       <c r="B215" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C215" t="s">
         <v>213</v>
@@ -5697,12 +5708,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44867</v>
       </c>
       <c r="B216" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C216" t="s">
         <v>237</v>
@@ -5714,12 +5725,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44874</v>
       </c>
       <c r="B217" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C217" t="s">
         <v>237</v>
@@ -5731,12 +5742,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44715</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C218" t="s">
         <v>20</v>
@@ -5748,12 +5759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44756</v>
       </c>
       <c r="B219" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C219" t="s">
         <v>46</v>
@@ -5765,12 +5776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44760</v>
       </c>
       <c r="B220" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C220" t="s">
         <v>71</v>
@@ -5782,12 +5793,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44800</v>
       </c>
       <c r="B221" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C221" t="s">
         <v>96</v>
@@ -5799,12 +5810,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44814</v>
       </c>
       <c r="B222" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C222" t="s">
         <v>120</v>
@@ -5816,12 +5827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44821</v>
       </c>
       <c r="B223" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C223" t="s">
         <v>144</v>
@@ -5833,12 +5844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44835</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C224" t="s">
         <v>175</v>
@@ -5850,12 +5861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44849</v>
       </c>
       <c r="B225" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C225" t="s">
         <v>214</v>
@@ -5867,12 +5878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44867</v>
       </c>
       <c r="B226" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C226" t="s">
         <v>238</v>
@@ -5884,12 +5895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44874</v>
       </c>
       <c r="B227" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C227" t="s">
         <v>238</v>
@@ -5901,12 +5912,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44715</v>
       </c>
       <c r="B228" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C228" t="s">
         <v>21</v>
@@ -5918,12 +5929,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44756</v>
       </c>
       <c r="B229" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C229" t="s">
         <v>47</v>
@@ -5935,12 +5946,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44760</v>
       </c>
       <c r="B230" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C230" t="s">
         <v>72</v>
@@ -5952,12 +5963,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44800</v>
       </c>
       <c r="B231" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C231" t="s">
         <v>97</v>
@@ -5969,12 +5980,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44814</v>
       </c>
       <c r="B232" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C232" t="s">
         <v>121</v>
@@ -5986,12 +5997,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44821</v>
       </c>
       <c r="B233" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C233" t="s">
         <v>145</v>
@@ -6003,12 +6014,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44835</v>
       </c>
       <c r="B234" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C234" t="s">
         <v>176</v>
@@ -6020,12 +6031,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44849</v>
       </c>
       <c r="B235" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C235" t="s">
         <v>215</v>
@@ -6037,12 +6048,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44867</v>
       </c>
       <c r="B236" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C236" t="s">
         <v>239</v>
@@ -6054,12 +6065,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44874</v>
       </c>
       <c r="B237" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C237" t="s">
         <v>239</v>
@@ -6071,12 +6082,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44715</v>
       </c>
       <c r="B238" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C238" t="s">
         <v>22</v>
@@ -6088,12 +6099,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44756</v>
       </c>
       <c r="B239" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C239" t="s">
         <v>48</v>
@@ -6105,12 +6116,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44760</v>
       </c>
       <c r="B240" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C240" t="s">
         <v>73</v>
@@ -6122,12 +6133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44800</v>
       </c>
       <c r="B241" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C241" t="s">
         <v>98</v>
@@ -6139,12 +6150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44814</v>
       </c>
       <c r="B242" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C242" t="s">
         <v>122</v>
@@ -6156,12 +6167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44821</v>
       </c>
       <c r="B243" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C243" t="s">
         <v>146</v>
@@ -6173,12 +6184,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44835</v>
       </c>
       <c r="B244" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C244" t="s">
         <v>177</v>
@@ -6190,12 +6201,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
       <c r="B245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C245" t="s">
         <v>216</v>
@@ -6207,12 +6218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44867</v>
       </c>
       <c r="B246" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C246" t="s">
         <v>240</v>
@@ -6224,12 +6235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44874</v>
       </c>
       <c r="B247" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C247" t="s">
         <v>240</v>
@@ -6241,12 +6252,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44715</v>
       </c>
       <c r="B248" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C248" t="s">
         <v>23</v>
@@ -6258,12 +6269,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44756</v>
       </c>
       <c r="B249" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C249" t="s">
         <v>49</v>
@@ -6275,12 +6286,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44760</v>
       </c>
       <c r="B250" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C250" t="s">
         <v>74</v>
@@ -6292,12 +6303,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44800</v>
       </c>
       <c r="B251" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C251" t="s">
         <v>99</v>
@@ -6309,12 +6320,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44814</v>
       </c>
       <c r="B252" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C252" t="s">
         <v>123</v>
@@ -6326,12 +6337,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44821</v>
       </c>
       <c r="B253" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C253" t="s">
         <v>147</v>
@@ -6343,12 +6354,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44835</v>
       </c>
       <c r="B254" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C254" t="s">
         <v>178</v>
@@ -6360,12 +6371,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
       <c r="B255" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C255" t="s">
         <v>217</v>
@@ -6377,12 +6388,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44867</v>
       </c>
       <c r="B256" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C256" t="s">
         <v>241</v>
@@ -6394,12 +6405,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44874</v>
       </c>
       <c r="B257" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C257" t="s">
         <v>241</v>
@@ -6411,12 +6422,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44715</v>
       </c>
       <c r="B258" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C258" t="s">
         <v>24</v>
@@ -6428,12 +6439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44756</v>
       </c>
       <c r="B259" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C259" t="s">
         <v>50</v>
@@ -6445,12 +6456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44760</v>
       </c>
       <c r="B260" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C260" t="s">
         <v>75</v>
@@ -6462,12 +6473,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44800</v>
       </c>
       <c r="B261" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C261" t="s">
         <v>100</v>
@@ -6479,12 +6490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44814</v>
       </c>
       <c r="B262" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C262" t="s">
         <v>124</v>
@@ -6496,12 +6507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44821</v>
       </c>
       <c r="B263" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C263" t="s">
         <v>148</v>
@@ -6513,12 +6524,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44835</v>
       </c>
       <c r="B264" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C264" t="s">
         <v>179</v>
@@ -6530,12 +6541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>44849</v>
       </c>
       <c r="B265" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C265" t="s">
         <v>218</v>
@@ -6547,12 +6558,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>44867</v>
       </c>
       <c r="B266" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C266" t="s">
         <v>242</v>
@@ -6564,12 +6575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44874</v>
       </c>
       <c r="B267" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C267" t="s">
         <v>242</v>
@@ -6593,18 +6604,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D45E18-8591-4AAE-A661-DE39183F6AA8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6618,493 +6629,437 @@
         <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.14930555555555555</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="2">
-        <f>(D2-C2)</f>
-        <v>1.7361111111111105E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.18819444444444444</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.19166666666666668</v>
-      </c>
-      <c r="E3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F18" si="0">(D3-C3)</f>
-        <v>3.4722222222222376E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="5">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44756</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.2013888888888889</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444475E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="5">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44756</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44760</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.21875</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44760</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44800</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.12916666666666668</v>
-      </c>
-      <c r="E8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222376E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="5">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44800</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.1423611111111111</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.15625</v>
-      </c>
-      <c r="E9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="5">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44800</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.21180555555555555</v>
-      </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777762E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="5">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44814</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.43611111111111112</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>0.45</v>
       </c>
-      <c r="E11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44814</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>0.49375000000000002</v>
       </c>
-      <c r="E12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44821</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>0.43402777777777779</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44821</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>0.49652777777777779</v>
       </c>
-      <c r="E14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44829</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5972222222222221E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>0.38958333333333334</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>0.40347222222222223</v>
       </c>
-      <c r="E16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0.42777777777777776</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E17" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44839</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>0.4375</v>
       </c>
-      <c r="E19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="2">
-        <f>(D19-C19)</f>
-        <v>6.9444444444444198E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44839</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E20" t="s">
-        <v>261</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" ref="F20:F27" si="1">(D20-C20)</f>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44849</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>0.43541666666666667</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E23" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44867</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>0.46666666666666667</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333315E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44874</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44874</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="2"/>
     </row>
   </sheetData>

--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4F779-7426-4A50-8C2B-169E3D10D196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B43DDC-3E5C-4C55-8B40-4F3E36ED0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9990" yWindow="-28695" windowWidth="17340" windowHeight="15285" activeTab="1" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="25395" yWindow="-29250" windowWidth="18240" windowHeight="28320" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1689,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2026,9 +2026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CD237-8741-4522-BD73-50EE967D5C1A}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6604,7 +6604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D45E18-8591-4AAE-A661-DE39183F6AA8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4F779-7426-4A50-8C2B-169E3D10D196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE6A32-6B8F-4B53-98F0-AF54CB836E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9990" yWindow="-28695" windowWidth="17340" windowHeight="15285" activeTab="1" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="14900" windowHeight="13710" activeTab="1" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1689,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,17 +2031,17 @@
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.05078125" customWidth="1"/>
-    <col min="3" max="3" width="50.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.47265625" customWidth="1"/>
-    <col min="5" max="5" width="9.62890625" customWidth="1"/>
-    <col min="6" max="6" width="18.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44760</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44800</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44800</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44814</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44821</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44849</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44867</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44874</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44715</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44756</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44760</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44800</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44814</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44821</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44829</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44839</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44874</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44715</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44756</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44760</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44800</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44814</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44821</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44829</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44839</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44849</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44867</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44874</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44715</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44756</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44760</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44800</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44814</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44829</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44835</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44839</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44849</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44867</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44874</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44715</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44756</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44760</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44800</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44814</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44829</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44835</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44839</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44849</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44867</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44874</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44715</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44756</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44760</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44800</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44814</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44829</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44835</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44839</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44849</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44867</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44874</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44715</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44760</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44800</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44814</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44821</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44829</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44835</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44839</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44849</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44867</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44874</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44715</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44760</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44800</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44814</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44821</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44835</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44839</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44849</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44867</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44874</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44715</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44760</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44800</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44814</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44821</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44835</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44839</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44849</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44867</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44874</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44715</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44760</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44800</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44814</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44821</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44835</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44839</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44849</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44867</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44874</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44715</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44756</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44760</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44800</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44821</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44835</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44839</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44849</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44867</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44874</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44715</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44756</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44760</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44800</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44814</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44821</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44835</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44839</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44849</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44867</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44874</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44715</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44756</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44800</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44814</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44821</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44829</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44835</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44839</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44849</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44867</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44874</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44715</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44756</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44800</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44814</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44821</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44835</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44839</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44849</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44867</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44874</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44715</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44756</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44800</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44814</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44821</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44835</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44839</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44849</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44867</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44874</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44715</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44756</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44760</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44800</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44814</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44821</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44835</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44839</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44849</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44867</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44874</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44715</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44756</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44760</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44715</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44756</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44760</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44814</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44821</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44835</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44849</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44867</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44874</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44715</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44756</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44760</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44814</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44821</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44835</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44849</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44867</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44874</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44715</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44756</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44760</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44814</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44821</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44835</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44849</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44867</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44874</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44715</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44756</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>44760</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>44800</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44814</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44821</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44835</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>44849</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44867</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>44874</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>44715</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44756</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>44760</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>44800</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44814</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>44821</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>44835</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>44849</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>44867</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>44874</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>44715</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>44756</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>44760</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>44800</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>44814</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>44821</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>44835</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>44867</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>44874</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>44715</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>44756</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>44760</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>44800</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44814</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>44821</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>44835</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>44867</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>44874</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>44715</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44756</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44760</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44800</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44814</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44821</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44835</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44849</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44867</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44874</v>
       </c>
@@ -6605,17 +6605,17 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.15625" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44756</v>
       </c>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44756</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44760</v>
       </c>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44760</v>
       </c>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44800</v>
       </c>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44800</v>
       </c>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44800</v>
       </c>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44814</v>
       </c>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44814</v>
       </c>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44821</v>
       </c>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44821</v>
       </c>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44829</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -6920,18 +6920,25 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44839</v>
       </c>
@@ -6949,7 +6956,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44839</v>
       </c>
@@ -6967,35 +6974,43 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44849</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.43263888888888891</v>
+      </c>
       <c r="E21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5">
+        <v>0.43263888888888891</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.44513888888888886</v>
+      </c>
       <c r="E22">
         <v>30</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
@@ -7013,7 +7028,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44867</v>
       </c>
@@ -7031,35 +7046,58 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44874</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="5">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.62569444444444444</v>
+      </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44874</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.62916666666666665</v>
+      </c>
       <c r="E26">
         <v>30</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
   </sheetData>

--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE6A32-6B8F-4B53-98F0-AF54CB836E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0A6BE-F0EA-43BC-BFE9-1E68959F15E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="14900" windowHeight="13710" activeTab="1" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="50625" yWindow="1095" windowWidth="12120" windowHeight="13590" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="531">
   <si>
     <t>20937885_2022-06-04_10_56_12_CDT_(Data_CDT).csv</t>
   </si>
@@ -1627,9 +1627,6 @@
   </si>
   <si>
     <t>lightlogger_file_path</t>
-  </si>
-  <si>
-    <t>airlogger cammarata</t>
   </si>
   <si>
     <t>disturbance_time_min</t>
@@ -2026,9 +2023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CD237-8741-4522-BD73-50EE967D5C1A}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,10 +2123,7 @@
         <v>245</v>
       </c>
       <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>530</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2146,10 +2140,7 @@
         <v>245</v>
       </c>
       <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>530</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2217,7 +2208,7 @@
         <v>245</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -4449,6 +4440,9 @@
       <c r="E141">
         <v>3</v>
       </c>
+      <c r="F141" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -4466,6 +4460,9 @@
       <c r="E142">
         <v>3</v>
       </c>
+      <c r="F142" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -4483,6 +4480,9 @@
       <c r="E143">
         <v>3</v>
       </c>
+      <c r="F143" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
@@ -4500,8 +4500,11 @@
       <c r="E144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44821</v>
       </c>
@@ -4517,8 +4520,11 @@
       <c r="E145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44829</v>
       </c>
@@ -4534,8 +4540,11 @@
       <c r="E146">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44835</v>
       </c>
@@ -4551,8 +4560,11 @@
       <c r="E147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44839</v>
       </c>
@@ -4568,8 +4580,11 @@
       <c r="E148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44849</v>
       </c>
@@ -4585,8 +4600,11 @@
       <c r="E149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44867</v>
       </c>
@@ -4602,8 +4620,11 @@
       <c r="E150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44874</v>
       </c>
@@ -4619,8 +4640,11 @@
       <c r="E151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44715</v>
       </c>
@@ -4637,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44756</v>
       </c>
@@ -4654,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -4671,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44800</v>
       </c>
@@ -4688,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44814</v>
       </c>
@@ -4705,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44821</v>
       </c>
@@ -4722,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44835</v>
       </c>
@@ -4739,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44839</v>
       </c>
@@ -4756,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44849</v>
       </c>
@@ -5297,7 +5321,7 @@
         <v>249</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
@@ -5314,7 +5338,7 @@
         <v>249</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
@@ -5331,7 +5355,7 @@
         <v>249</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -5348,7 +5372,7 @@
         <v>249</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -5365,7 +5389,7 @@
         <v>249</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
@@ -5382,7 +5406,7 @@
         <v>249</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -5399,7 +5423,7 @@
         <v>249</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -6604,7 +6628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D45E18-8591-4AAE-A661-DE39183F6AA8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6629,7 +6653,7 @@
         <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">

--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0A6BE-F0EA-43BC-BFE9-1E68959F15E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC5E11-1719-45A3-A3CF-1331C5D7FFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50625" yWindow="1095" windowWidth="12120" windowHeight="13590" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="42600" yWindow="-29220" windowWidth="18240" windowHeight="28320" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
@@ -1056,9 +1056,6 @@
     <t>data/LightLoggerData/08_27_22/08_27_22_xl/20937885_2022-08-27_18_40_50_CDT_(Data_CDT).csv</t>
   </si>
   <si>
-    <t>data/LightLoggerData/08_27_22/08_27_22_xl/20937885_2022-08-27_18_40_50_CDT_(Data_CDT)_1.csv</t>
-  </si>
-  <si>
     <t>data/LightLoggerData/08_27_22/08_27_22_xl/20983687_2022-08-27_18_45_47_CDT_(Data_CDT).csv</t>
   </si>
   <si>
@@ -1630,6 +1627,9 @@
   </si>
   <si>
     <t>disturbance_time_min</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/08_27_22/08_27_22_xl/deprecated/20937885_2022-08-27_18_40_50_CDT_(Data_CDT)_1.csv</t>
   </si>
 </sst>
 </file>
@@ -2025,25 +2025,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1015625" customWidth="1"/>
+    <col min="3" max="3" width="50.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.47265625" customWidth="1"/>
+    <col min="5" max="5" width="9.62890625" customWidth="1"/>
+    <col min="6" max="6" width="18.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>260</v>
@@ -2058,7 +2058,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44760</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44800</v>
       </c>
@@ -2126,12 +2126,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44800</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>530</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -2143,12 +2143,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44814</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -2160,12 +2160,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44821</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
         <v>125</v>
@@ -2177,12 +2177,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" t="s">
         <v>156</v>
@@ -2194,12 +2194,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44849</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C10" t="s">
         <v>195</v>
@@ -2211,12 +2211,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44867</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C11" t="s">
         <v>219</v>
@@ -2228,12 +2228,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44874</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44715</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44756</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44760</v>
       </c>
@@ -2296,12 +2296,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44800</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
@@ -2313,12 +2313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44814</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
         <v>102</v>
@@ -2330,12 +2330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44821</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
@@ -2347,12 +2347,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44829</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C19" t="s">
         <v>149</v>
@@ -2364,12 +2364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
         <v>157</v>
@@ -2381,12 +2381,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44839</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
@@ -2398,12 +2398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
       <c r="B22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C22" t="s">
         <v>196</v>
@@ -2415,12 +2415,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
       <c r="B23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -2432,12 +2432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44874</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
         <v>220</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44715</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44756</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44760</v>
       </c>
@@ -2500,12 +2500,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44800</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
@@ -2517,12 +2517,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44814</v>
       </c>
       <c r="B29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
@@ -2534,12 +2534,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44821</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
         <v>127</v>
@@ -2551,12 +2551,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44829</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
         <v>150</v>
@@ -2568,12 +2568,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
       <c r="B32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
@@ -2585,12 +2585,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44839</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" t="s">
         <v>181</v>
@@ -2602,12 +2602,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44849</v>
       </c>
       <c r="B34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
         <v>197</v>
@@ -2619,12 +2619,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44867</v>
       </c>
       <c r="B35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C35" t="s">
         <v>221</v>
@@ -2636,12 +2636,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44874</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" t="s">
         <v>221</v>
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44715</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44756</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44760</v>
       </c>
@@ -2704,12 +2704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44800</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
@@ -2721,12 +2721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44814</v>
       </c>
       <c r="B41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
@@ -2738,12 +2738,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
         <v>128</v>
@@ -2755,12 +2755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44829</v>
       </c>
       <c r="B43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
         <v>151</v>
@@ -2772,12 +2772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44835</v>
       </c>
       <c r="B44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C44" t="s">
         <v>159</v>
@@ -2789,12 +2789,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44839</v>
       </c>
       <c r="B45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C45" t="s">
         <v>182</v>
@@ -2806,12 +2806,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44849</v>
       </c>
       <c r="B46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C46" t="s">
         <v>198</v>
@@ -2823,12 +2823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44867</v>
       </c>
       <c r="B47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C47" t="s">
         <v>222</v>
@@ -2840,12 +2840,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44874</v>
       </c>
       <c r="B48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C48" t="s">
         <v>222</v>
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44715</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44756</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44760</v>
       </c>
@@ -2908,12 +2908,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44800</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
         <v>81</v>
@@ -2925,12 +2925,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44814</v>
       </c>
       <c r="B53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
@@ -2942,12 +2942,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
       <c r="B54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C54" t="s">
         <v>129</v>
@@ -2959,12 +2959,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44829</v>
       </c>
       <c r="B55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C55" t="s">
         <v>152</v>
@@ -2976,12 +2976,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44835</v>
       </c>
       <c r="B56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
@@ -2993,12 +2993,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44839</v>
       </c>
       <c r="B57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C57" t="s">
         <v>183</v>
@@ -3010,12 +3010,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44849</v>
       </c>
       <c r="B58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C58" t="s">
         <v>199</v>
@@ -3027,12 +3027,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44867</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C59" t="s">
         <v>223</v>
@@ -3044,12 +3044,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44874</v>
       </c>
       <c r="B60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C60" t="s">
         <v>223</v>
@@ -3061,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44715</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44756</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44760</v>
       </c>
@@ -3112,12 +3112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44800</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s">
         <v>82</v>
@@ -3129,12 +3129,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44814</v>
       </c>
       <c r="B65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
@@ -3146,12 +3146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C66" t="s">
         <v>130</v>
@@ -3163,12 +3163,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44829</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C67" t="s">
         <v>153</v>
@@ -3180,12 +3180,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44835</v>
       </c>
       <c r="B68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
@@ -3197,12 +3197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44839</v>
       </c>
       <c r="B69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
@@ -3214,12 +3214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44849</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C70" t="s">
         <v>200</v>
@@ -3231,12 +3231,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44867</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C71" t="s">
         <v>224</v>
@@ -3248,12 +3248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44874</v>
       </c>
       <c r="B72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C72" t="s">
         <v>224</v>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44715</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44760</v>
       </c>
@@ -3316,12 +3316,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44800</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -3333,12 +3333,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44814</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
         <v>107</v>
@@ -3350,12 +3350,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44821</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C78" t="s">
         <v>131</v>
@@ -3367,12 +3367,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44829</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
@@ -3384,12 +3384,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44835</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
@@ -3401,12 +3401,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44839</v>
       </c>
       <c r="B81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C81" t="s">
         <v>185</v>
@@ -3418,12 +3418,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44849</v>
       </c>
       <c r="B82" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C82" t="s">
         <v>201</v>
@@ -3435,12 +3435,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44867</v>
       </c>
       <c r="B83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C83" t="s">
         <v>225</v>
@@ -3452,12 +3452,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44874</v>
       </c>
       <c r="B84" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C84" t="s">
         <v>225</v>
@@ -3469,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44715</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44760</v>
       </c>
@@ -3520,12 +3520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44800</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C88" t="s">
         <v>84</v>
@@ -3537,12 +3537,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44814</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C89" t="s">
         <v>108</v>
@@ -3554,12 +3554,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44821</v>
       </c>
       <c r="B90" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C90" t="s">
         <v>132</v>
@@ -3571,12 +3571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44835</v>
       </c>
       <c r="B91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C91" t="s">
         <v>163</v>
@@ -3588,12 +3588,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44839</v>
       </c>
       <c r="B92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
         <v>186</v>
@@ -3605,12 +3605,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44849</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C93" t="s">
         <v>202</v>
@@ -3622,12 +3622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44867</v>
       </c>
       <c r="B94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -3639,12 +3639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44874</v>
       </c>
       <c r="B95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44715</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44760</v>
       </c>
@@ -3707,12 +3707,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44800</v>
       </c>
       <c r="B99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -3724,12 +3724,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44814</v>
       </c>
       <c r="B100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C100" t="s">
         <v>109</v>
@@ -3741,12 +3741,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44821</v>
       </c>
       <c r="B101" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
         <v>133</v>
@@ -3758,12 +3758,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44835</v>
       </c>
       <c r="B102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C102" t="s">
         <v>164</v>
@@ -3775,12 +3775,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44839</v>
       </c>
       <c r="B103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C103" t="s">
         <v>187</v>
@@ -3792,12 +3792,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44849</v>
       </c>
       <c r="B104" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
@@ -3809,12 +3809,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44867</v>
       </c>
       <c r="B105" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C105" t="s">
         <v>227</v>
@@ -3826,12 +3826,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44874</v>
       </c>
       <c r="B106" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C106" t="s">
         <v>227</v>
@@ -3843,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44715</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44760</v>
       </c>
@@ -3894,12 +3894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44800</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C110" t="s">
         <v>86</v>
@@ -3911,12 +3911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44814</v>
       </c>
       <c r="B111" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C111" t="s">
         <v>110</v>
@@ -3928,12 +3928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44821</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C112" t="s">
         <v>134</v>
@@ -3945,12 +3945,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44835</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C113" t="s">
         <v>165</v>
@@ -3962,12 +3962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44839</v>
       </c>
       <c r="B114" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C114" t="s">
         <v>188</v>
@@ -3979,12 +3979,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44849</v>
       </c>
       <c r="B115" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3996,12 +3996,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44867</v>
       </c>
       <c r="B116" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C116" t="s">
         <v>228</v>
@@ -4013,12 +4013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44874</v>
       </c>
       <c r="B117" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C117" t="s">
         <v>228</v>
@@ -4030,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44715</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44756</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44760</v>
       </c>
@@ -4081,12 +4081,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44800</v>
       </c>
       <c r="B121" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
         <v>87</v>
@@ -4098,12 +4098,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
       <c r="B122" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C122" t="s">
         <v>111</v>
@@ -4115,12 +4115,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44821</v>
       </c>
       <c r="B123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
         <v>135</v>
@@ -4132,12 +4132,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44835</v>
       </c>
       <c r="B124" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C124" t="s">
         <v>166</v>
@@ -4149,12 +4149,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44839</v>
       </c>
       <c r="B125" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
@@ -4166,12 +4166,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44849</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C126" t="s">
         <v>205</v>
@@ -4183,12 +4183,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44867</v>
       </c>
       <c r="B127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C127" t="s">
         <v>229</v>
@@ -4200,12 +4200,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44874</v>
       </c>
       <c r="B128" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C128" t="s">
         <v>229</v>
@@ -4217,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44715</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44756</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44760</v>
       </c>
@@ -4268,12 +4268,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44800</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C132" t="s">
         <v>88</v>
@@ -4285,12 +4285,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44814</v>
       </c>
       <c r="B133" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C133" t="s">
         <v>112</v>
@@ -4302,12 +4302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44821</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
@@ -4319,12 +4319,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44835</v>
       </c>
       <c r="B135" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C135" t="s">
         <v>167</v>
@@ -4336,12 +4336,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44839</v>
       </c>
       <c r="B136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C136" t="s">
         <v>190</v>
@@ -4353,12 +4353,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44849</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C137" t="s">
         <v>206</v>
@@ -4370,12 +4370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44867</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C138" t="s">
         <v>230</v>
@@ -4387,12 +4387,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44874</v>
       </c>
       <c r="B139" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C139" t="s">
         <v>230</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44715</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44756</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -4464,12 +4464,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44800</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C143" t="s">
         <v>89</v>
@@ -4484,12 +4484,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44814</v>
       </c>
       <c r="B144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C144" t="s">
         <v>113</v>
@@ -4504,12 +4504,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44821</v>
       </c>
       <c r="B145" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C145" t="s">
         <v>137</v>
@@ -4524,12 +4524,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44829</v>
       </c>
       <c r="B146" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s">
         <v>155</v>
@@ -4544,12 +4544,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44835</v>
       </c>
       <c r="B147" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C147" t="s">
         <v>168</v>
@@ -4564,12 +4564,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44839</v>
       </c>
       <c r="B148" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C148" t="s">
         <v>191</v>
@@ -4584,12 +4584,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44849</v>
       </c>
       <c r="B149" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C149" t="s">
         <v>207</v>
@@ -4604,12 +4604,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44867</v>
       </c>
       <c r="B150" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C150" t="s">
         <v>231</v>
@@ -4624,12 +4624,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44874</v>
       </c>
       <c r="B151" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C151" t="s">
         <v>231</v>
@@ -4644,7 +4644,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44715</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44756</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -4695,12 +4695,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44800</v>
       </c>
       <c r="B155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C155" t="s">
         <v>90</v>
@@ -4712,12 +4712,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44814</v>
       </c>
       <c r="B156" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C156" t="s">
         <v>114</v>
@@ -4729,12 +4729,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44821</v>
       </c>
       <c r="B157" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
         <v>138</v>
@@ -4746,12 +4746,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44835</v>
       </c>
       <c r="B158" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C158" t="s">
         <v>169</v>
@@ -4763,12 +4763,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44839</v>
       </c>
       <c r="B159" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C159" t="s">
         <v>192</v>
@@ -4780,12 +4780,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>44849</v>
       </c>
       <c r="B160" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C160" t="s">
         <v>208</v>
@@ -4797,12 +4797,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>44867</v>
       </c>
       <c r="B161" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C161" t="s">
         <v>232</v>
@@ -4814,12 +4814,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>44874</v>
       </c>
       <c r="B162" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C162" t="s">
         <v>232</v>
@@ -4831,7 +4831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>44715</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44756</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -4882,12 +4882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44800</v>
       </c>
       <c r="B166" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C166" t="s">
         <v>91</v>
@@ -4899,12 +4899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44814</v>
       </c>
       <c r="B167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C167" t="s">
         <v>115</v>
@@ -4916,12 +4916,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44821</v>
       </c>
       <c r="B168" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C168" t="s">
         <v>139</v>
@@ -4933,12 +4933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44835</v>
       </c>
       <c r="B169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C169" t="s">
         <v>170</v>
@@ -4950,12 +4950,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44839</v>
       </c>
       <c r="B170" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C170" t="s">
         <v>193</v>
@@ -4967,12 +4967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44849</v>
       </c>
       <c r="B171" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C171" t="s">
         <v>209</v>
@@ -4984,12 +4984,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44867</v>
       </c>
       <c r="B172" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C172" t="s">
         <v>233</v>
@@ -5001,12 +5001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44874</v>
       </c>
       <c r="B173" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C173" t="s">
         <v>233</v>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44715</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44756</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44760</v>
       </c>
@@ -5069,12 +5069,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44800</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C177" t="s">
         <v>92</v>
@@ -5086,12 +5086,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44814</v>
       </c>
       <c r="B178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C178" t="s">
         <v>116</v>
@@ -5103,12 +5103,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44821</v>
       </c>
       <c r="B179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C179" t="s">
         <v>140</v>
@@ -5120,12 +5120,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44835</v>
       </c>
       <c r="B180" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C180" t="s">
         <v>171</v>
@@ -5137,12 +5137,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44839</v>
       </c>
       <c r="B181" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C181" t="s">
         <v>194</v>
@@ -5154,12 +5154,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44849</v>
       </c>
       <c r="B182" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C182" t="s">
         <v>210</v>
@@ -5171,12 +5171,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44867</v>
       </c>
       <c r="B183" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C183" t="s">
         <v>234</v>
@@ -5188,12 +5188,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44874</v>
       </c>
       <c r="B184" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C184" t="s">
         <v>234</v>
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44715</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44756</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44760</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44715</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44756</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44760</v>
       </c>
@@ -5307,12 +5307,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
       <c r="B191" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C191" t="s">
         <v>93</v>
@@ -5324,12 +5324,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44814</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
         <v>117</v>
@@ -5341,12 +5341,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44821</v>
       </c>
       <c r="B193" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C193" t="s">
         <v>141</v>
@@ -5358,12 +5358,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44835</v>
       </c>
       <c r="B194" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C194" t="s">
         <v>172</v>
@@ -5375,12 +5375,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44849</v>
       </c>
       <c r="B195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C195" t="s">
         <v>211</v>
@@ -5392,12 +5392,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44867</v>
       </c>
       <c r="B196" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C196" t="s">
         <v>235</v>
@@ -5409,12 +5409,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44874</v>
       </c>
       <c r="B197" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C197" t="s">
         <v>235</v>
@@ -5426,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44715</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44756</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44760</v>
       </c>
@@ -5477,12 +5477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
       <c r="B201" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C201" t="s">
         <v>94</v>
@@ -5494,12 +5494,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44814</v>
       </c>
       <c r="B202" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C202" t="s">
         <v>118</v>
@@ -5511,12 +5511,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44821</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C203" t="s">
         <v>142</v>
@@ -5528,12 +5528,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44835</v>
       </c>
       <c r="B204" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C204" t="s">
         <v>173</v>
@@ -5545,12 +5545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44849</v>
       </c>
       <c r="B205" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5562,12 +5562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44867</v>
       </c>
       <c r="B206" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C206" t="s">
         <v>236</v>
@@ -5579,12 +5579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44874</v>
       </c>
       <c r="B207" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C207" t="s">
         <v>236</v>
@@ -5596,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44715</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44756</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44760</v>
       </c>
@@ -5647,12 +5647,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
       <c r="B211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C211" t="s">
         <v>95</v>
@@ -5664,12 +5664,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44814</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C212" t="s">
         <v>119</v>
@@ -5681,12 +5681,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44821</v>
       </c>
       <c r="B213" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C213" t="s">
         <v>143</v>
@@ -5698,12 +5698,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44835</v>
       </c>
       <c r="B214" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" t="s">
         <v>174</v>
@@ -5715,12 +5715,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44849</v>
       </c>
       <c r="B215" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C215" t="s">
         <v>213</v>
@@ -5732,12 +5732,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44867</v>
       </c>
       <c r="B216" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C216" t="s">
         <v>237</v>
@@ -5749,12 +5749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44874</v>
       </c>
       <c r="B217" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C217" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44715</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44756</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44760</v>
       </c>
@@ -5817,12 +5817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44800</v>
       </c>
       <c r="B221" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C221" t="s">
         <v>96</v>
@@ -5834,12 +5834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44814</v>
       </c>
       <c r="B222" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C222" t="s">
         <v>120</v>
@@ -5851,12 +5851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44821</v>
       </c>
       <c r="B223" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C223" t="s">
         <v>144</v>
@@ -5868,12 +5868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44835</v>
       </c>
       <c r="B224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C224" t="s">
         <v>175</v>
@@ -5885,12 +5885,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44849</v>
       </c>
       <c r="B225" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C225" t="s">
         <v>214</v>
@@ -5902,12 +5902,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44867</v>
       </c>
       <c r="B226" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C226" t="s">
         <v>238</v>
@@ -5919,12 +5919,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44874</v>
       </c>
       <c r="B227" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C227" t="s">
         <v>238</v>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44715</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44756</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44760</v>
       </c>
@@ -5987,12 +5987,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44800</v>
       </c>
       <c r="B231" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C231" t="s">
         <v>97</v>
@@ -6004,12 +6004,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44814</v>
       </c>
       <c r="B232" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C232" t="s">
         <v>121</v>
@@ -6021,12 +6021,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44821</v>
       </c>
       <c r="B233" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C233" t="s">
         <v>145</v>
@@ -6038,12 +6038,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44835</v>
       </c>
       <c r="B234" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C234" t="s">
         <v>176</v>
@@ -6055,12 +6055,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44849</v>
       </c>
       <c r="B235" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C235" t="s">
         <v>215</v>
@@ -6072,12 +6072,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44867</v>
       </c>
       <c r="B236" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C236" t="s">
         <v>239</v>
@@ -6089,12 +6089,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44874</v>
       </c>
       <c r="B237" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C237" t="s">
         <v>239</v>
@@ -6106,7 +6106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44715</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44756</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44760</v>
       </c>
@@ -6157,12 +6157,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44800</v>
       </c>
       <c r="B241" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C241" t="s">
         <v>98</v>
@@ -6174,12 +6174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44814</v>
       </c>
       <c r="B242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C242" t="s">
         <v>122</v>
@@ -6191,12 +6191,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44821</v>
       </c>
       <c r="B243" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C243" t="s">
         <v>146</v>
@@ -6208,12 +6208,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44835</v>
       </c>
       <c r="B244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C244" t="s">
         <v>177</v>
@@ -6225,12 +6225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
       <c r="B245" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C245" t="s">
         <v>216</v>
@@ -6242,12 +6242,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44867</v>
       </c>
       <c r="B246" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C246" t="s">
         <v>240</v>
@@ -6259,12 +6259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44874</v>
       </c>
       <c r="B247" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C247" t="s">
         <v>240</v>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44715</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44756</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44760</v>
       </c>
@@ -6327,12 +6327,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44800</v>
       </c>
       <c r="B251" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C251" t="s">
         <v>99</v>
@@ -6344,12 +6344,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44814</v>
       </c>
       <c r="B252" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C252" t="s">
         <v>123</v>
@@ -6361,12 +6361,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44821</v>
       </c>
       <c r="B253" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C253" t="s">
         <v>147</v>
@@ -6378,12 +6378,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44835</v>
       </c>
       <c r="B254" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C254" t="s">
         <v>178</v>
@@ -6395,12 +6395,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
       <c r="B255" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C255" t="s">
         <v>217</v>
@@ -6412,12 +6412,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44867</v>
       </c>
       <c r="B256" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C256" t="s">
         <v>241</v>
@@ -6429,12 +6429,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44874</v>
       </c>
       <c r="B257" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C257" t="s">
         <v>241</v>
@@ -6446,7 +6446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44715</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44756</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44760</v>
       </c>
@@ -6497,12 +6497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44800</v>
       </c>
       <c r="B261" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C261" t="s">
         <v>100</v>
@@ -6514,12 +6514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44814</v>
       </c>
       <c r="B262" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C262" t="s">
         <v>124</v>
@@ -6531,12 +6531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44821</v>
       </c>
       <c r="B263" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C263" t="s">
         <v>148</v>
@@ -6548,12 +6548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44835</v>
       </c>
       <c r="B264" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C264" t="s">
         <v>179</v>
@@ -6565,12 +6565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>44849</v>
       </c>
       <c r="B265" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C265" t="s">
         <v>218</v>
@@ -6582,12 +6582,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>44867</v>
       </c>
       <c r="B266" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C266" t="s">
         <v>242</v>
@@ -6599,12 +6599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44874</v>
       </c>
       <c r="B267" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C267" t="s">
         <v>242</v>
@@ -6632,14 +6632,14 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6653,10 +6653,10 @@
         <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44756</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44756</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44760</v>
       </c>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44760</v>
       </c>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44800</v>
       </c>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44800</v>
       </c>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44800</v>
       </c>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44814</v>
       </c>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44814</v>
       </c>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44821</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44821</v>
       </c>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44829</v>
       </c>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44839</v>
       </c>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44839</v>
       </c>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44849</v>
       </c>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44867</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44874</v>
       </c>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44874</v>
       </c>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44874</v>
       </c>

--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC5E11-1719-45A3-A3CF-1331C5D7FFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA4D49-095F-4F86-9E82-5BC553DD0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42600" yWindow="-29220" windowWidth="18240" windowHeight="28320" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="25365" yWindow="-28920" windowWidth="18240" windowHeight="28320" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
     <sheet name="disturbance_periods" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_lightloggers!$A$1:$F$300</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="555">
   <si>
     <t>20937885_2022-06-04_10_56_12_CDT_(Data_CDT).csv</t>
   </si>
@@ -1479,150 +1482,6 @@
     <t>data/LightLoggerData/10_15_22/10_15_22_xl/21407818_2022-10-15_15_58_52_CDT_(Data_CDT).csv</t>
   </si>
   <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20937885_2022-11-02_13_42_02_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983687_2022-11-02_13_40_31_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983688_2022-11-02_13_40_23_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983689_2022-11-02_13_46_57_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983690_2022-11-02_13_47_05_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983692_2022-11-02_13_39_20_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983765_2022-11-02_13_39_29_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983766_2022-11-02_13_46_09_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983767_2022-11-02_13_46_18_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983768_2022-11-02_13_46_27_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983771_2022-11-02_13_46_35_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/20983772_2022-11-02_13_43_21_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21126989_2022-11-02_13_39_04_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407807_2022-11-02_13_43_29_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407808_2022-11-02_13_41_45_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407809_2022-11-02_13_41_54_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407811_2022-11-02_13_39_12_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407812_2022-11-02_13_43_12_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407813_2022-11-02_13_43_04_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407814_2022-11-02_13_44_59_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407815_2022-11-02_13_45_08_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407816_2022-11-02_13_40_40_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407817_2022-11-02_13_40_48_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_02_22/11_06_22_xl/21407818_2022-11-02_13_42_10_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20937885_2022-11-02_13_42_02_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983687_2022-11-02_13_40_31_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983688_2022-11-02_13_40_23_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983689_2022-11-02_13_46_57_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983690_2022-11-02_13_47_05_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983692_2022-11-02_13_39_20_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983765_2022-11-02_13_39_29_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983766_2022-11-02_13_46_09_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983767_2022-11-02_13_46_18_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983768_2022-11-02_13_46_27_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983771_2022-11-02_13_46_35_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983772_2022-11-02_13_43_21_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21126989_2022-11-02_13_39_04_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407807_2022-11-02_13_43_29_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407808_2022-11-02_13_41_45_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407809_2022-11-02_13_41_54_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407811_2022-11-02_13_39_12_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407812_2022-11-02_13_43_12_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407813_2022-11-02_13_43_04_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407814_2022-11-02_13_44_59_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407815_2022-11-02_13_45_08_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407816_2022-11-02_13_40_40_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407817_2022-11-02_13_40_48_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
-    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407818_2022-11-02_13_42_10_CDT_(Data_CDT).csv</t>
-  </si>
-  <si>
     <t>lightlogger_file_path</t>
   </si>
   <si>
@@ -1630,6 +1489,222 @@
   </si>
   <si>
     <t>data/LightLoggerData/08_27_22/08_27_22_xl/deprecated/20937885_2022-08-27_18_40_50_CDT_(Data_CDT)_1.csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983687_2022-11-02_13_40_31_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983688_2022-11-02_13_40_23_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983689_2022-11-02_13_46_57_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983690_2022-11-02_13_47_05_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983692_2022-11-02_13_39_20_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983765_2022-11-02_13_39_29_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983766_2022-11-02_13_46_09_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983767_2022-11-02_13_46_18_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983768_2022-11-02_13_46_27_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983771_2022-11-02_13_46_35_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20983772_2022-11-02_13_43_21_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21126989_2022-11-02_13_39_04_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407807_2022-11-02_13_43_29_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407808_2022-11-02_13_41_45_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407809_2022-11-02_13_41_54_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407811_2022-11-02_13_39_12_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407812_2022-11-02_13_43_12_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407813_2022-11-02_13_43_04_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407814_2022-11-02_13_44_59_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407815_2022-11-02_13_45_08_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407816_2022-11-02_13_40_40_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407817_2022-11-02_13_40_48_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/21407818_2022-11-02_13_42_10_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_02_22/11_02_22_xl/20937885_2022-11-02_13_42_02_CDT_(Data_CDT).csv</t>
+  </si>
+  <si>
+    <t>20937885_2022-11-09_18_07_59_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983687_2022-11-09_18_13_56_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983688_2022-11-09_18_14_03_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983689_2022-11-09_18_12_32_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983690_2022-11-09_18_12_40_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983692_2022-11-09_18_12_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983765_2022-11-09_18_12_34_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983766_2022-11-09_18_12_24_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983767_2022-11-09_18_12_41_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983768_2022-11-09_18_13_43_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983771_2022-11-09_18_13_50_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>20983772_2022-11-09_18_10_09_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407807_2022-11-09_18_10_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407808_2022-11-09_18_08_06_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407809_2022-11-09_18_08_13_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407811_2022-11-09_18_12_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407813_2022-11-09_18_12_23_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407814_2022-11-09_18_10_08_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407815_2022-11-09_18_10_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407816_2022-11-09_18_10_59_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407817_2022-11-09_18_10_24_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21407818_2022-11-09_18_07_52_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983688_2022-11-09_18_14_03_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983689_2022-11-09_18_12_32_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983690_2022-11-09_18_12_40_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983692_2022-11-09_18_12_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983765_2022-11-09_18_12_34_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20937885_2022-11-09_18_07_59_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983687_2022-11-09_18_13_56_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983766_2022-11-09_18_12_24_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983767_2022-11-09_18_12_41_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983768_2022-11-09_18_13_43_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983771_2022-11-09_18_13_50_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/20983772_2022-11-09_18_10_09_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407807_2022-11-09_18_10_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407808_2022-11-09_18_08_06_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407809_2022-11-09_18_08_13_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407811_2022-11-09_18_12_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407813_2022-11-09_18_12_23_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407814_2022-11-09_18_10_08_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407815_2022-11-09_18_10_16_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407816_2022-11-09_18_10_59_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407817_2022-11-09_18_10_24_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21407818_2022-11-09_18_07_52_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>logger_group</t>
+  </si>
+  <si>
+    <t>data/LightLoggerData/11_09_22/11_09_22_xl/21126989_2022-11-09_18_07_45_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>21126989_2022-11-09_18_07_45_CST_(Data_CST).csv</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1687,6 +1762,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2021,17 +2097,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CD237-8741-4522-BD73-50EE967D5C1A}">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1015625" customWidth="1"/>
+    <col min="2" max="2" width="86.20703125" customWidth="1"/>
     <col min="3" max="3" width="50.5234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.47265625" customWidth="1"/>
     <col min="5" max="5" width="9.62890625" customWidth="1"/>
@@ -2043,7 +2119,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>260</v>
@@ -2077,33 +2153,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>44756</v>
+        <v>44715</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>44760</v>
+        <v>44715</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2111,33 +2187,33 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <v>44800</v>
+        <v>44715</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <v>44800</v>
+        <v>44715</v>
       </c>
       <c r="B6" t="s">
-        <v>530</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2145,33 +2221,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <v>44814</v>
+        <v>44715</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
-        <v>44821</v>
+        <v>44715</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2179,33 +2255,33 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
-        <v>44835</v>
+        <v>44715</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <v>44849</v>
+        <v>44715</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2213,33 +2289,33 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
-        <v>44867</v>
+        <v>44715</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
-        <v>44874</v>
+        <v>44715</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2250,13 +2326,13 @@
         <v>44715</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2264,50 +2340,53 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
-        <v>44756</v>
+        <v>44715</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>243</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
-        <v>44760</v>
+        <v>44715</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
-        <v>44800</v>
+        <v>44715</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2315,33 +2394,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
-        <v>44814</v>
+        <v>44715</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
-        <v>44821</v>
+        <v>44715</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2349,33 +2428,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
-        <v>44829</v>
+        <v>44715</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
-        <v>44835</v>
+        <v>44715</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2383,33 +2462,33 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
-        <v>44839</v>
+        <v>44715</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
-        <v>44849</v>
+        <v>44715</v>
       </c>
       <c r="B22" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2417,33 +2496,33 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
-        <v>44867</v>
+        <v>44715</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>284</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
-        <v>44874</v>
+        <v>44715</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2454,13 +2533,13 @@
         <v>44715</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2468,33 +2547,33 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
-        <v>44756</v>
+        <v>44715</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2502,30 +2581,30 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>44800</v>
+        <v>44756</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>243</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>243</v>
@@ -2536,33 +2615,33 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
-        <v>44821</v>
+        <v>44756</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
-        <v>44829</v>
+        <v>44756</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2570,421 +2649,424 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>44835</v>
+        <v>44756</v>
       </c>
       <c r="B32" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>44839</v>
+        <v>44756</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>294</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>44849</v>
+        <v>44756</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>44867</v>
+        <v>44756</v>
       </c>
       <c r="B35" t="s">
-        <v>482</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>44874</v>
+        <v>44756</v>
       </c>
       <c r="B36" t="s">
-        <v>506</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>44715</v>
+        <v>44756</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44756</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
-        <v>44800</v>
+        <v>44756</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
-        <v>44821</v>
+        <v>44756</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
-        <v>44829</v>
+        <v>44756</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
-        <v>44835</v>
+        <v>44756</v>
       </c>
       <c r="B44" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
-        <v>44839</v>
+        <v>44756</v>
       </c>
       <c r="B45" t="s">
-        <v>443</v>
+        <v>306</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
-        <v>44849</v>
+        <v>44756</v>
       </c>
       <c r="B46" t="s">
-        <v>459</v>
+        <v>307</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
-        <v>44867</v>
+        <v>44756</v>
       </c>
       <c r="B47" t="s">
-        <v>483</v>
+        <v>308</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
-        <v>44874</v>
+        <v>44756</v>
       </c>
       <c r="B48" t="s">
-        <v>507</v>
+        <v>309</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
-        <v>44715</v>
+        <v>44756</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44756</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
         <v>44760</v>
       </c>
-      <c r="B51" t="s">
-        <v>317</v>
-      </c>
-      <c r="C51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
-        <v>44800</v>
-      </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
-        <v>44814</v>
+        <v>44760</v>
       </c>
       <c r="B53" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
-        <v>44821</v>
+        <v>44760</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
-        <v>44835</v>
+        <v>44760</v>
       </c>
       <c r="B56" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
         <v>255</v>
@@ -2993,171 +3075,174 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
-        <v>44839</v>
+        <v>44760</v>
       </c>
       <c r="B57" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
-        <v>44849</v>
+        <v>44760</v>
       </c>
       <c r="B58" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
-        <v>44867</v>
+        <v>44760</v>
       </c>
       <c r="B59" t="s">
-        <v>484</v>
+        <v>320</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
-        <v>44874</v>
+        <v>44760</v>
       </c>
       <c r="B60" t="s">
-        <v>508</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
-        <v>44715</v>
+        <v>44760</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B62" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44760</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
-        <v>44814</v>
+        <v>44760</v>
       </c>
       <c r="B65" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
-        <v>44821</v>
+        <v>44760</v>
       </c>
       <c r="B66" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3165,33 +3250,33 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
-        <v>44835</v>
+        <v>44760</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3199,33 +3284,33 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
-        <v>44839</v>
+        <v>44760</v>
       </c>
       <c r="B69" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
-        <v>44849</v>
+        <v>44760</v>
       </c>
       <c r="B70" t="s">
-        <v>461</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3233,33 +3318,33 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
-        <v>44867</v>
+        <v>44760</v>
       </c>
       <c r="B71" t="s">
-        <v>485</v>
+        <v>332</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
-        <v>44874</v>
+        <v>44760</v>
       </c>
       <c r="B72" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3267,16 +3352,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
-        <v>44715</v>
+        <v>44760</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -3284,19 +3369,19 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3304,13 +3389,13 @@
         <v>44760</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -3318,33 +3403,33 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
-        <v>44814</v>
+        <v>44800</v>
       </c>
       <c r="B77" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -3352,16 +3437,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
-        <v>44821</v>
+        <v>44800</v>
       </c>
       <c r="B78" t="s">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -3369,98 +3454,98 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
-        <v>44829</v>
+        <v>44800</v>
       </c>
       <c r="B79" t="s">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
-        <v>44835</v>
+        <v>44800</v>
       </c>
       <c r="B80" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B81" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B82" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
-        <v>44867</v>
+        <v>44800</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>343</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
         <v>254</v>
       </c>
       <c r="E83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
-        <v>44874</v>
+        <v>44800</v>
       </c>
       <c r="B84" t="s">
-        <v>510</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
         <v>254</v>
@@ -3469,15 +3554,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
-        <v>44715</v>
+        <v>44800</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
         <v>253</v>
@@ -3486,188 +3571,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
-        <v>44756</v>
+        <v>44800</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
       </c>
       <c r="E86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
-        <v>44760</v>
+        <v>44800</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44800</v>
       </c>
       <c r="B88" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
-        <v>44814</v>
+        <v>44800</v>
       </c>
       <c r="B89" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
-        <v>44821</v>
+        <v>44800</v>
       </c>
       <c r="B90" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
-        <v>44835</v>
+        <v>44800</v>
       </c>
       <c r="B91" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>352</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B93" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
-        <v>44867</v>
+        <v>44800</v>
       </c>
       <c r="B94" t="s">
-        <v>487</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
-        <v>44874</v>
+        <v>44800</v>
       </c>
       <c r="B95" t="s">
-        <v>511</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
-        <v>44715</v>
+        <v>44800</v>
       </c>
       <c r="B96" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -3675,33 +3763,33 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
-        <v>44756</v>
+        <v>44800</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
-        <v>44760</v>
+        <v>44800</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -3712,30 +3800,30 @@
         <v>44800</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C99" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
-        <v>44814</v>
+        <v>44800</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -3743,33 +3831,33 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
-        <v>44821</v>
+        <v>44800</v>
       </c>
       <c r="B101" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C101" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
-        <v>44835</v>
+        <v>44814</v>
       </c>
       <c r="B102" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -3777,33 +3865,33 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
-        <v>44839</v>
+        <v>44814</v>
       </c>
       <c r="B103" t="s">
-        <v>448</v>
+        <v>363</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
-        <v>44849</v>
+        <v>44814</v>
       </c>
       <c r="B104" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3811,33 +3899,33 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
-        <v>44867</v>
+        <v>44814</v>
       </c>
       <c r="B105" t="s">
-        <v>488</v>
+        <v>365</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="D105" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
-        <v>44874</v>
+        <v>44814</v>
       </c>
       <c r="B106" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="D106" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -3845,16 +3933,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
-        <v>44715</v>
+        <v>44814</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>367</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3862,33 +3950,33 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
-        <v>44756</v>
+        <v>44814</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3896,19 +3984,19 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
-        <v>44800</v>
+        <v>44814</v>
       </c>
       <c r="B110" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3930,288 +4018,291 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="B112" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C112" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
         <v>252</v>
       </c>
       <c r="E112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
-        <v>44835</v>
+        <v>44814</v>
       </c>
       <c r="B113" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
-        <v>44839</v>
+        <v>44814</v>
       </c>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D114" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
-        <v>44849</v>
+        <v>44814</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
-        <v>44867</v>
+        <v>44814</v>
       </c>
       <c r="B116" t="s">
-        <v>489</v>
+        <v>376</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
-        <v>44874</v>
+        <v>44814</v>
       </c>
       <c r="B117" t="s">
-        <v>513</v>
+        <v>377</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="D117" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
-        <v>44715</v>
+        <v>44814</v>
       </c>
       <c r="B118" t="s">
-        <v>273</v>
+        <v>378</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
-        <v>44756</v>
+        <v>44814</v>
       </c>
       <c r="B119" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D119" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B120" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="C120" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
-        <v>44800</v>
+        <v>44814</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="C121" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
       <c r="B122" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B123" t="s">
+        <v>383</v>
+      </c>
+      <c r="C123" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" t="s">
+        <v>246</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B124" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B125" t="s">
+        <v>385</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+      <c r="D125" t="s">
+        <v>245</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1">
         <v>44821</v>
       </c>
-      <c r="B123" t="s">
-        <v>396</v>
-      </c>
-      <c r="C123" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" t="s">
-        <v>252</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B124" t="s">
-        <v>427</v>
-      </c>
-      <c r="C124" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124" t="s">
-        <v>252</v>
-      </c>
-      <c r="E124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="1">
-        <v>44839</v>
-      </c>
-      <c r="B125" t="s">
-        <v>450</v>
-      </c>
-      <c r="C125" t="s">
-        <v>189</v>
-      </c>
-      <c r="D125" t="s">
-        <v>252</v>
-      </c>
-      <c r="E125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="1">
-        <v>44849</v>
-      </c>
       <c r="B126" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D126" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
-        <v>44867</v>
+        <v>44821</v>
       </c>
       <c r="B127" t="s">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
-        <v>44874</v>
+        <v>44821</v>
       </c>
       <c r="B128" t="s">
-        <v>514</v>
+        <v>388</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -4219,16 +4310,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
-        <v>44715</v>
+        <v>44821</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>389</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="D129" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -4236,33 +4327,33 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B130" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="D130" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
-        <v>44760</v>
+        <v>44821</v>
       </c>
       <c r="B131" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="C131" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D131" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -4270,33 +4361,33 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
-        <v>44800</v>
+        <v>44821</v>
       </c>
       <c r="B132" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C132" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="B133" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -4307,30 +4398,30 @@
         <v>44821</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
-        <v>44835</v>
+        <v>44821</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -4338,30 +4429,30 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
-        <v>44839</v>
+        <v>44821</v>
       </c>
       <c r="B136" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="C136" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="D136" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
-        <v>44849</v>
+        <v>44821</v>
       </c>
       <c r="B137" t="s">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="C137" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="D137" t="s">
         <v>251</v>
@@ -4372,136 +4463,124 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
-        <v>44867</v>
+        <v>44821</v>
       </c>
       <c r="B138" t="s">
-        <v>491</v>
+        <v>398</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="D138" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
-        <v>44874</v>
+        <v>44821</v>
       </c>
       <c r="B139" t="s">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="D139" t="s">
         <v>251</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
-        <v>44715</v>
+        <v>44821</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D140" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E140">
-        <v>3</v>
-      </c>
-      <c r="F140" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E141">
-        <v>3</v>
-      </c>
-      <c r="F141" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
-        <v>44760</v>
+        <v>44821</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="C142" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="D142" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E142">
-        <v>3</v>
-      </c>
-      <c r="F142" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
-        <v>44800</v>
+        <v>44821</v>
       </c>
       <c r="B143" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="C143" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D143" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E143">
-        <v>3</v>
-      </c>
-      <c r="F143" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C144" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E144">
-        <v>3</v>
-      </c>
-      <c r="F144" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4509,170 +4588,149 @@
         <v>44821</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C145" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E145">
-        <v>3</v>
-      </c>
-      <c r="F145" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
-        <v>44829</v>
+        <v>44821</v>
       </c>
       <c r="B146" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E146">
-        <v>3</v>
-      </c>
-      <c r="F146" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
-        <v>44835</v>
+        <v>44821</v>
       </c>
       <c r="B147" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D147" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E147">
-        <v>3</v>
-      </c>
-      <c r="F147" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
-        <v>44839</v>
+        <v>44821</v>
       </c>
       <c r="B148" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="D148" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E148">
-        <v>3</v>
-      </c>
-      <c r="F148" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
-        <v>44849</v>
+        <v>44821</v>
       </c>
       <c r="B149" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="D149" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E149">
-        <v>3</v>
-      </c>
-      <c r="F149" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
-        <v>44867</v>
+        <v>44829</v>
       </c>
       <c r="B150" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="C150" t="s">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
         <v>243</v>
       </c>
       <c r="E150">
-        <v>3</v>
-      </c>
-      <c r="F150" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
-        <v>44874</v>
+        <v>44829</v>
       </c>
       <c r="B151" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
       <c r="C151" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="D151" t="s">
         <v>243</v>
       </c>
       <c r="E151">
-        <v>3</v>
-      </c>
-      <c r="F151" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
-        <v>44715</v>
+        <v>44829</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="D152" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
-        <v>44756</v>
+        <v>44829</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>413</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="D153" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -4680,33 +4738,33 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
-        <v>44760</v>
+        <v>44829</v>
       </c>
       <c r="B154" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D154" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B155" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="D155" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -4714,33 +4772,36 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
-        <v>44814</v>
+        <v>44829</v>
       </c>
       <c r="B156" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D156" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F156" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C157" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -4751,30 +4812,30 @@
         <v>44835</v>
       </c>
       <c r="B158" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D158" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="B159" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C159" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D159" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -4782,200 +4843,203 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
-        <v>44849</v>
+        <v>44835</v>
       </c>
       <c r="B160" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D160" t="s">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B161" t="s">
+        <v>421</v>
+      </c>
+      <c r="C161" t="s">
+        <v>160</v>
+      </c>
+      <c r="D161" t="s">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B162" t="s">
+        <v>422</v>
+      </c>
+      <c r="C162" t="s">
+        <v>161</v>
+      </c>
+      <c r="D162" t="s">
+        <v>254</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B163" t="s">
+        <v>423</v>
+      </c>
+      <c r="C163" t="s">
+        <v>162</v>
+      </c>
+      <c r="D163" t="s">
+        <v>254</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B164" t="s">
+        <v>424</v>
+      </c>
+      <c r="C164" t="s">
+        <v>163</v>
+      </c>
+      <c r="D164" t="s">
+        <v>253</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B165" t="s">
+        <v>425</v>
+      </c>
+      <c r="C165" t="s">
+        <v>164</v>
+      </c>
+      <c r="D165" t="s">
+        <v>253</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B166" t="s">
+        <v>426</v>
+      </c>
+      <c r="C166" t="s">
+        <v>165</v>
+      </c>
+      <c r="D166" t="s">
+        <v>252</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B167" t="s">
+        <v>427</v>
+      </c>
+      <c r="C167" t="s">
+        <v>166</v>
+      </c>
+      <c r="D167" t="s">
+        <v>252</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B168" t="s">
+        <v>428</v>
+      </c>
+      <c r="C168" t="s">
+        <v>167</v>
+      </c>
+      <c r="D168" t="s">
         <v>251</v>
       </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B161" t="s">
-        <v>493</v>
-      </c>
-      <c r="C161" t="s">
-        <v>232</v>
-      </c>
-      <c r="D161" t="s">
-        <v>251</v>
-      </c>
-      <c r="E161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B162" t="s">
-        <v>517</v>
-      </c>
-      <c r="C162" t="s">
-        <v>232</v>
-      </c>
-      <c r="D162" t="s">
-        <v>251</v>
-      </c>
-      <c r="E162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B163" t="s">
-        <v>277</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>250</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B164" t="s">
-        <v>302</v>
-      </c>
-      <c r="C164" t="s">
-        <v>40</v>
-      </c>
-      <c r="D164" t="s">
-        <v>250</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B165" t="s">
-        <v>327</v>
-      </c>
-      <c r="C165" t="s">
-        <v>65</v>
-      </c>
-      <c r="D165" t="s">
-        <v>250</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="1">
-        <v>44800</v>
-      </c>
-      <c r="B166" t="s">
-        <v>352</v>
-      </c>
-      <c r="C166" t="s">
-        <v>91</v>
-      </c>
-      <c r="D166" t="s">
-        <v>250</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B167" t="s">
-        <v>376</v>
-      </c>
-      <c r="C167" t="s">
-        <v>115</v>
-      </c>
-      <c r="D167" t="s">
-        <v>250</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="1">
-        <v>44821</v>
-      </c>
-      <c r="B168" t="s">
-        <v>400</v>
-      </c>
-      <c r="C168" t="s">
-        <v>139</v>
-      </c>
-      <c r="D168" t="s">
-        <v>250</v>
-      </c>
       <c r="E168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44835</v>
       </c>
       <c r="B169" t="s">
+        <v>429</v>
+      </c>
+      <c r="C169" t="s">
+        <v>168</v>
+      </c>
+      <c r="D169" t="s">
+        <v>243</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B170" t="s">
+        <v>430</v>
+      </c>
+      <c r="C170" t="s">
+        <v>169</v>
+      </c>
+      <c r="D170" t="s">
+        <v>251</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B171" t="s">
         <v>431</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C171" t="s">
         <v>170</v>
-      </c>
-      <c r="D169" t="s">
-        <v>250</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="1">
-        <v>44839</v>
-      </c>
-      <c r="B170" t="s">
-        <v>454</v>
-      </c>
-      <c r="C170" t="s">
-        <v>193</v>
-      </c>
-      <c r="D170" t="s">
-        <v>250</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="1">
-        <v>44849</v>
-      </c>
-      <c r="B171" t="s">
-        <v>470</v>
-      </c>
-      <c r="C171" t="s">
-        <v>209</v>
       </c>
       <c r="D171" t="s">
         <v>250</v>
@@ -4984,647 +5048,653 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
-        <v>44867</v>
+        <v>44835</v>
       </c>
       <c r="B172" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="C172" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D172" t="s">
         <v>250</v>
       </c>
       <c r="E172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
-        <v>44874</v>
+        <v>44835</v>
       </c>
       <c r="B173" t="s">
-        <v>518</v>
+        <v>433</v>
       </c>
       <c r="C173" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D173" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
-        <v>44715</v>
+        <v>44835</v>
       </c>
       <c r="B174" t="s">
-        <v>278</v>
+        <v>434</v>
       </c>
       <c r="C174" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D174" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
-        <v>44756</v>
+        <v>44835</v>
       </c>
       <c r="B175" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="D175" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
-        <v>44760</v>
+        <v>44835</v>
       </c>
       <c r="B176" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="C176" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="D176" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
-        <v>44800</v>
+        <v>44835</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="C177" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="D177" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E177">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
-        <v>44814</v>
+        <v>44835</v>
       </c>
       <c r="B178" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="C178" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="D178" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B179" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="C179" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D179" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E179">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44835</v>
       </c>
       <c r="B180" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C180" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D180" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44839</v>
       </c>
       <c r="B181" t="s">
+        <v>441</v>
+      </c>
+      <c r="C181" t="s">
+        <v>180</v>
+      </c>
+      <c r="D181" t="s">
+        <v>243</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B182" t="s">
+        <v>442</v>
+      </c>
+      <c r="C182" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" t="s">
+        <v>243</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B183" t="s">
+        <v>443</v>
+      </c>
+      <c r="C183" t="s">
+        <v>182</v>
+      </c>
+      <c r="D183" t="s">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B184" t="s">
+        <v>444</v>
+      </c>
+      <c r="C184" t="s">
+        <v>183</v>
+      </c>
+      <c r="D184" t="s">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B185" t="s">
+        <v>445</v>
+      </c>
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+      <c r="D185" t="s">
+        <v>254</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B186" t="s">
+        <v>446</v>
+      </c>
+      <c r="C186" t="s">
+        <v>185</v>
+      </c>
+      <c r="D186" t="s">
+        <v>254</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B187" t="s">
+        <v>447</v>
+      </c>
+      <c r="C187" t="s">
+        <v>186</v>
+      </c>
+      <c r="D187" t="s">
+        <v>253</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B188" t="s">
+        <v>448</v>
+      </c>
+      <c r="C188" t="s">
+        <v>187</v>
+      </c>
+      <c r="D188" t="s">
+        <v>253</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B189" t="s">
+        <v>449</v>
+      </c>
+      <c r="C189" t="s">
+        <v>188</v>
+      </c>
+      <c r="D189" t="s">
+        <v>252</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B190" t="s">
+        <v>450</v>
+      </c>
+      <c r="C190" t="s">
+        <v>189</v>
+      </c>
+      <c r="D190" t="s">
+        <v>252</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B191" t="s">
+        <v>451</v>
+      </c>
+      <c r="C191" t="s">
+        <v>190</v>
+      </c>
+      <c r="D191" t="s">
+        <v>251</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B192" t="s">
+        <v>452</v>
+      </c>
+      <c r="C192" t="s">
+        <v>191</v>
+      </c>
+      <c r="D192" t="s">
+        <v>243</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B193" t="s">
+        <v>453</v>
+      </c>
+      <c r="C193" t="s">
+        <v>192</v>
+      </c>
+      <c r="D193" t="s">
+        <v>251</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B194" t="s">
+        <v>454</v>
+      </c>
+      <c r="C194" t="s">
+        <v>193</v>
+      </c>
+      <c r="D194" t="s">
+        <v>250</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B195" t="s">
         <v>455</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C195" t="s">
         <v>194</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D195" t="s">
         <v>250</v>
       </c>
-      <c r="E181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="1">
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1">
         <v>44849</v>
       </c>
-      <c r="B182" t="s">
-        <v>471</v>
-      </c>
-      <c r="C182" t="s">
-        <v>210</v>
-      </c>
-      <c r="D182" t="s">
-        <v>250</v>
-      </c>
-      <c r="E182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B183" t="s">
-        <v>495</v>
-      </c>
-      <c r="C183" t="s">
-        <v>234</v>
-      </c>
-      <c r="D183" t="s">
-        <v>250</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B184" t="s">
-        <v>519</v>
-      </c>
-      <c r="C184" t="s">
-        <v>234</v>
-      </c>
-      <c r="D184" t="s">
-        <v>250</v>
-      </c>
-      <c r="E184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B185" t="s">
-        <v>279</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>249</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B186" t="s">
-        <v>304</v>
-      </c>
-      <c r="C186" t="s">
-        <v>42</v>
-      </c>
-      <c r="D186" t="s">
-        <v>249</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B187" t="s">
-        <v>329</v>
-      </c>
-      <c r="C187" t="s">
-        <v>67</v>
-      </c>
-      <c r="D187" t="s">
-        <v>249</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B188" t="s">
-        <v>280</v>
-      </c>
-      <c r="C188" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" t="s">
-        <v>249</v>
-      </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B189" t="s">
-        <v>305</v>
-      </c>
-      <c r="C189" t="s">
-        <v>43</v>
-      </c>
-      <c r="D189" t="s">
-        <v>249</v>
-      </c>
-      <c r="E189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B190" t="s">
-        <v>330</v>
-      </c>
-      <c r="C190" t="s">
-        <v>68</v>
-      </c>
-      <c r="D190" t="s">
-        <v>249</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="1">
-        <v>44800</v>
-      </c>
-      <c r="B191" t="s">
-        <v>354</v>
-      </c>
-      <c r="C191" t="s">
-        <v>93</v>
-      </c>
-      <c r="D191" t="s">
-        <v>249</v>
-      </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B192" t="s">
-        <v>378</v>
-      </c>
-      <c r="C192" t="s">
-        <v>117</v>
-      </c>
-      <c r="D192" t="s">
-        <v>249</v>
-      </c>
-      <c r="E192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="1">
-        <v>44821</v>
-      </c>
-      <c r="B193" t="s">
-        <v>402</v>
-      </c>
-      <c r="C193" t="s">
-        <v>141</v>
-      </c>
-      <c r="D193" t="s">
-        <v>249</v>
-      </c>
-      <c r="E193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B194" t="s">
-        <v>433</v>
-      </c>
-      <c r="C194" t="s">
-        <v>172</v>
-      </c>
-      <c r="D194" t="s">
-        <v>249</v>
-      </c>
-      <c r="E194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="1">
+      <c r="B196" t="s">
+        <v>456</v>
+      </c>
+      <c r="C196" t="s">
+        <v>195</v>
+      </c>
+      <c r="D196" t="s">
+        <v>245</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1">
         <v>44849</v>
       </c>
-      <c r="B195" t="s">
-        <v>472</v>
-      </c>
-      <c r="C195" t="s">
-        <v>211</v>
-      </c>
-      <c r="D195" t="s">
-        <v>249</v>
-      </c>
-      <c r="E195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B196" t="s">
-        <v>496</v>
-      </c>
-      <c r="C196" t="s">
-        <v>235</v>
-      </c>
-      <c r="D196" t="s">
-        <v>249</v>
-      </c>
-      <c r="E196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="1">
-        <v>44874</v>
-      </c>
       <c r="B197" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="C197" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D197" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
-        <v>44715</v>
+        <v>44849</v>
       </c>
       <c r="B198" t="s">
-        <v>281</v>
+        <v>458</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="D198" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
-        <v>44756</v>
+        <v>44849</v>
       </c>
       <c r="B199" t="s">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D199" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
-        <v>44760</v>
+        <v>44849</v>
       </c>
       <c r="B200" t="s">
-        <v>331</v>
+        <v>460</v>
       </c>
       <c r="C200" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="D200" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
-        <v>44800</v>
+        <v>44849</v>
       </c>
       <c r="B201" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="C201" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="D201" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
-        <v>44814</v>
+        <v>44849</v>
       </c>
       <c r="B202" t="s">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="C202" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D202" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
-        <v>44821</v>
+        <v>44849</v>
       </c>
       <c r="B203" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="C203" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="D203" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
-        <v>44835</v>
+        <v>44849</v>
       </c>
       <c r="B204" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="C204" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D204" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44849</v>
       </c>
       <c r="B205" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C205" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D205" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B206" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C206" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D206" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B207" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="C207" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="D207" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
-        <v>44715</v>
+        <v>44849</v>
       </c>
       <c r="B208" t="s">
-        <v>282</v>
+        <v>468</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="D208" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F208" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
-        <v>44756</v>
+        <v>44849</v>
       </c>
       <c r="B209" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="C209" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="D209" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -5632,33 +5702,33 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
-        <v>44760</v>
+        <v>44849</v>
       </c>
       <c r="B210" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="C210" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="D210" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
-        <v>44800</v>
+        <v>44849</v>
       </c>
       <c r="B211" t="s">
-        <v>356</v>
+        <v>471</v>
       </c>
       <c r="C211" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="D211" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E211">
         <v>2</v>
@@ -5666,16 +5736,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
-        <v>44814</v>
+        <v>44849</v>
       </c>
       <c r="B212" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="C212" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D212" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -5683,30 +5753,30 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
-        <v>44821</v>
+        <v>44849</v>
       </c>
       <c r="B213" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="C213" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D213" t="s">
         <v>248</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
-        <v>44835</v>
+        <v>44849</v>
       </c>
       <c r="B214" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="C214" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D214" t="s">
         <v>248</v>
@@ -5720,30 +5790,30 @@
         <v>44849</v>
       </c>
       <c r="B215" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B216" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="C216" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D216" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -5751,50 +5821,50 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B217" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="C217" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D217" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
-        <v>44715</v>
+        <v>44849</v>
       </c>
       <c r="B218" t="s">
-        <v>283</v>
+        <v>478</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D218" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
-        <v>44756</v>
+        <v>44849</v>
       </c>
       <c r="B219" t="s">
-        <v>308</v>
+        <v>479</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="D219" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -5802,33 +5872,33 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
-        <v>44760</v>
+        <v>44867</v>
       </c>
       <c r="B220" t="s">
-        <v>333</v>
+        <v>506</v>
       </c>
       <c r="C220" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="D220" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
-        <v>44800</v>
+        <v>44867</v>
       </c>
       <c r="B221" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="C221" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D221" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -5836,33 +5906,33 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
-        <v>44814</v>
+        <v>44867</v>
       </c>
       <c r="B222" t="s">
-        <v>381</v>
+        <v>484</v>
       </c>
       <c r="C222" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="D222" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
-        <v>44821</v>
+        <v>44867</v>
       </c>
       <c r="B223" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="C223" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="D223" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -5870,302 +5940,305 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
-        <v>44835</v>
+        <v>44867</v>
       </c>
       <c r="B224" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="C224" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="D224" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
-        <v>44849</v>
+        <v>44867</v>
       </c>
       <c r="B225" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C225" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D225" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44867</v>
       </c>
       <c r="B226" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C226" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D226" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B227" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="C227" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D227" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
-        <v>44715</v>
+        <v>44867</v>
       </c>
       <c r="B228" t="s">
-        <v>284</v>
+        <v>490</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="D228" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E228">
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
-        <v>44756</v>
+        <v>44867</v>
       </c>
       <c r="B229" t="s">
-        <v>309</v>
+        <v>491</v>
       </c>
       <c r="C229" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="D229" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
-        <v>44760</v>
+        <v>44867</v>
       </c>
       <c r="B230" t="s">
-        <v>334</v>
+        <v>492</v>
       </c>
       <c r="C230" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="D230" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E230">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
-        <v>44800</v>
+        <v>44867</v>
       </c>
       <c r="B231" t="s">
-        <v>358</v>
+        <v>493</v>
       </c>
       <c r="C231" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="D231" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
-        <v>44814</v>
+        <v>44867</v>
       </c>
       <c r="B232" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="C232" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="D232" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="F232" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
-        <v>44821</v>
+        <v>44867</v>
       </c>
       <c r="B233" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="C233" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="D233" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E233">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
-        <v>44835</v>
+        <v>44867</v>
       </c>
       <c r="B234" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="C234" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="D234" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
-        <v>44849</v>
+        <v>44867</v>
       </c>
       <c r="B235" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C235" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D235" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E235">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44867</v>
       </c>
       <c r="B236" t="s">
+        <v>498</v>
+      </c>
+      <c r="C236" t="s">
+        <v>235</v>
+      </c>
+      <c r="D236" t="s">
+        <v>249</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B237" t="s">
+        <v>499</v>
+      </c>
+      <c r="C237" t="s">
+        <v>236</v>
+      </c>
+      <c r="D237" t="s">
+        <v>248</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B238" t="s">
         <v>500</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C238" t="s">
+        <v>237</v>
+      </c>
+      <c r="D238" t="s">
+        <v>248</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B239" t="s">
+        <v>501</v>
+      </c>
+      <c r="C239" t="s">
+        <v>238</v>
+      </c>
+      <c r="D239" t="s">
+        <v>247</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B240" t="s">
+        <v>502</v>
+      </c>
+      <c r="C240" t="s">
         <v>239</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D240" t="s">
         <v>247</v>
       </c>
-      <c r="E236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B237" t="s">
-        <v>524</v>
-      </c>
-      <c r="C237" t="s">
-        <v>239</v>
-      </c>
-      <c r="D237" t="s">
-        <v>247</v>
-      </c>
-      <c r="E237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B238" t="s">
-        <v>285</v>
-      </c>
-      <c r="C238" t="s">
-        <v>22</v>
-      </c>
-      <c r="D238" t="s">
-        <v>246</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B239" t="s">
-        <v>310</v>
-      </c>
-      <c r="C239" t="s">
-        <v>48</v>
-      </c>
-      <c r="D239" t="s">
-        <v>246</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B240" t="s">
-        <v>335</v>
-      </c>
-      <c r="C240" t="s">
-        <v>73</v>
-      </c>
-      <c r="D240" t="s">
-        <v>246</v>
-      </c>
       <c r="E240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
-        <v>44800</v>
+        <v>44867</v>
       </c>
       <c r="B241" t="s">
-        <v>359</v>
+        <v>503</v>
       </c>
       <c r="C241" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="D241" t="s">
         <v>246</v>
@@ -6174,450 +6247,602 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
-        <v>44814</v>
+        <v>44867</v>
       </c>
       <c r="B242" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="C242" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="D242" t="s">
         <v>246</v>
       </c>
       <c r="E242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
-        <v>44821</v>
+        <v>44867</v>
       </c>
       <c r="B243" t="s">
-        <v>407</v>
+        <v>505</v>
       </c>
       <c r="C243" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="D243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
-        <v>44835</v>
+        <v>44874</v>
       </c>
       <c r="B244" t="s">
-        <v>438</v>
+        <v>535</v>
       </c>
       <c r="C244" t="s">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="D244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" ref="G244:G268" si="0">LEFT(C244,8)</f>
+        <v>20937885</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
-        <v>44849</v>
+        <v>44874</v>
       </c>
       <c r="B245" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="C245" t="s">
-        <v>216</v>
+        <v>508</v>
       </c>
       <c r="D245" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G245" t="str">
+        <f t="shared" si="0"/>
+        <v>20983687</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
-        <v>44867</v>
+        <v>44874</v>
       </c>
       <c r="B246" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C246" t="s">
-        <v>240</v>
+        <v>509</v>
       </c>
       <c r="D246" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="0"/>
+        <v>20983688</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44874</v>
       </c>
       <c r="B247" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C247" t="s">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="D247" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G247" t="str">
+        <f t="shared" si="0"/>
+        <v>20983689</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B248" t="s">
-        <v>286</v>
+        <v>532</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
       <c r="D248" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G248" t="str">
+        <f t="shared" si="0"/>
+        <v>20983690</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
-        <v>44756</v>
+        <v>44874</v>
       </c>
       <c r="B249" t="s">
-        <v>311</v>
+        <v>533</v>
       </c>
       <c r="C249" t="s">
-        <v>49</v>
+        <v>512</v>
       </c>
       <c r="D249" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="0"/>
+        <v>20983692</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
-        <v>44760</v>
+        <v>44874</v>
       </c>
       <c r="B250" t="s">
-        <v>336</v>
+        <v>534</v>
       </c>
       <c r="C250" t="s">
-        <v>74</v>
+        <v>513</v>
       </c>
       <c r="D250" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G250" t="str">
+        <f t="shared" si="0"/>
+        <v>20983765</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
-        <v>44800</v>
+        <v>44874</v>
       </c>
       <c r="B251" t="s">
-        <v>360</v>
+        <v>537</v>
       </c>
       <c r="C251" t="s">
-        <v>99</v>
+        <v>514</v>
       </c>
       <c r="D251" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="0"/>
+        <v>20983766</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
-        <v>44814</v>
+        <v>44874</v>
       </c>
       <c r="B252" t="s">
-        <v>384</v>
+        <v>538</v>
       </c>
       <c r="C252" t="s">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="D252" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G252" t="str">
+        <f t="shared" si="0"/>
+        <v>20983767</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
-        <v>44821</v>
+        <v>44874</v>
       </c>
       <c r="B253" t="s">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="C253" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="D253" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E253">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="G253" t="str">
+        <f t="shared" si="0"/>
+        <v>20983768</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
-        <v>44835</v>
+        <v>44874</v>
       </c>
       <c r="B254" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
       <c r="C254" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="D254" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E254">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G254" t="str">
+        <f t="shared" si="0"/>
+        <v>20983771</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
-        <v>44849</v>
+        <v>44874</v>
       </c>
       <c r="B255" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="C255" t="s">
-        <v>217</v>
+        <v>518</v>
       </c>
       <c r="D255" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="0"/>
+        <v>20983772</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
-        <v>44867</v>
+        <v>44874</v>
       </c>
       <c r="B256" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="C256" t="s">
-        <v>241</v>
+        <v>554</v>
       </c>
       <c r="D256" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="F256" t="s">
+        <v>262</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="0"/>
+        <v>21126989</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44874</v>
       </c>
       <c r="B257" t="s">
+        <v>542</v>
+      </c>
+      <c r="C257" t="s">
+        <v>519</v>
+      </c>
+      <c r="D257" t="s">
+        <v>251</v>
+      </c>
+      <c r="E257">
+        <v>2</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="0"/>
+        <v>21407807</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B258" t="s">
+        <v>543</v>
+      </c>
+      <c r="C258" t="s">
+        <v>520</v>
+      </c>
+      <c r="D258" t="s">
+        <v>250</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" si="0"/>
+        <v>21407808</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B259" t="s">
+        <v>544</v>
+      </c>
+      <c r="C259" t="s">
+        <v>521</v>
+      </c>
+      <c r="D259" t="s">
+        <v>250</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" si="0"/>
+        <v>21407809</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B260" t="s">
+        <v>529</v>
+      </c>
+      <c r="C260" t="s">
+        <v>529</v>
+      </c>
+      <c r="D260" t="s">
+        <v>249</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B261" t="s">
+        <v>545</v>
+      </c>
+      <c r="C261" t="s">
+        <v>522</v>
+      </c>
+      <c r="D261" t="s">
+        <v>249</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="0"/>
+        <v>21407811</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B262" t="s">
+        <v>529</v>
+      </c>
+      <c r="C262" t="s">
+        <v>529</v>
+      </c>
+      <c r="D262" t="s">
+        <v>248</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B263" t="s">
+        <v>546</v>
+      </c>
+      <c r="C263" t="s">
+        <v>523</v>
+      </c>
+      <c r="D263" t="s">
+        <v>248</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="0"/>
+        <v>21407813</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B264" t="s">
+        <v>547</v>
+      </c>
+      <c r="C264" t="s">
+        <v>524</v>
+      </c>
+      <c r="D264" t="s">
+        <v>247</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="0"/>
+        <v>21407814</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B265" t="s">
+        <v>548</v>
+      </c>
+      <c r="C265" t="s">
+        <v>525</v>
+      </c>
+      <c r="D265" t="s">
+        <v>247</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="0"/>
+        <v>21407815</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B266" t="s">
+        <v>549</v>
+      </c>
+      <c r="C266" t="s">
         <v>526</v>
       </c>
-      <c r="C257" t="s">
-        <v>241</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="D266" t="s">
         <v>246</v>
       </c>
-      <c r="E257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B258" t="s">
-        <v>287</v>
-      </c>
-      <c r="C258" t="s">
-        <v>24</v>
-      </c>
-      <c r="D258" t="s">
-        <v>245</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B259" t="s">
-        <v>312</v>
-      </c>
-      <c r="C259" t="s">
-        <v>50</v>
-      </c>
-      <c r="D259" t="s">
-        <v>245</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B260" t="s">
-        <v>337</v>
-      </c>
-      <c r="C260" t="s">
-        <v>75</v>
-      </c>
-      <c r="D260" t="s">
-        <v>245</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" s="1">
-        <v>44800</v>
-      </c>
-      <c r="B261" t="s">
-        <v>361</v>
-      </c>
-      <c r="C261" t="s">
-        <v>100</v>
-      </c>
-      <c r="D261" t="s">
-        <v>245</v>
-      </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B262" t="s">
-        <v>385</v>
-      </c>
-      <c r="C262" t="s">
-        <v>124</v>
-      </c>
-      <c r="D262" t="s">
-        <v>245</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="1">
-        <v>44821</v>
-      </c>
-      <c r="B263" t="s">
-        <v>409</v>
-      </c>
-      <c r="C263" t="s">
-        <v>148</v>
-      </c>
-      <c r="D263" t="s">
-        <v>245</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B264" t="s">
-        <v>440</v>
-      </c>
-      <c r="C264" t="s">
-        <v>179</v>
-      </c>
-      <c r="D264" t="s">
-        <v>245</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="1">
-        <v>44849</v>
-      </c>
-      <c r="B265" t="s">
-        <v>479</v>
-      </c>
-      <c r="C265" t="s">
-        <v>218</v>
-      </c>
-      <c r="D265" t="s">
-        <v>245</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B266" t="s">
-        <v>503</v>
-      </c>
-      <c r="C266" t="s">
-        <v>242</v>
-      </c>
-      <c r="D266" t="s">
-        <v>245</v>
-      </c>
       <c r="E266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G266" t="str">
+        <f t="shared" si="0"/>
+        <v>21407816</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44874</v>
       </c>
       <c r="B267" t="s">
+        <v>550</v>
+      </c>
+      <c r="C267" t="s">
         <v>527</v>
       </c>
-      <c r="C267" t="s">
-        <v>242</v>
-      </c>
       <c r="D267" t="s">
+        <v>246</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="0"/>
+        <v>21407817</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B268" t="s">
+        <v>551</v>
+      </c>
+      <c r="C268" t="s">
+        <v>528</v>
+      </c>
+      <c r="D268" t="s">
         <v>245</v>
       </c>
-      <c r="E267">
-        <v>1</v>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="0"/>
+        <v>21407818</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G269" t="str">
+        <f t="shared" ref="G269:G273" si="1">LEFT(C269,8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G270" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G271" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G272" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G273" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F268">
+  <autoFilter ref="A1:F300" xr:uid="{A65CD237-8741-4522-BD73-50EE967D5C1A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H268">
+    <sortCondition ref="A2:A268"/>
     <sortCondition ref="C2:C268"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6626,20 +6851,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D45E18-8591-4AAE-A661-DE39183F6AA8}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.15625" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="7" max="7" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6647,482 +6872,492 @@
         <v>256</v>
       </c>
       <c r="C1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" t="s">
         <v>257</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>258</v>
       </c>
-      <c r="E1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F25" si="0">(E2-D2)*1440</f>
+        <v>24.999999999999911</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44756</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>0.68819444444444444</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>0.69166666666666665</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44756</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>10.000000000000124</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44756</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>0.75</v>
       </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>19.999999999999929</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44760</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>0.71875</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44760</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>0.75</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>19.999999999999929</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44800</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>0.62569444444444444</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>0.62916666666666665</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44800</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>0.64236111111111116</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>0.65625</v>
       </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>19.999999999999929</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44800</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>0.71180555555555558</v>
       </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>40.000000000000014</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44814</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>0.43611111111111112</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>0.45</v>
       </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44814</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>0.49375000000000002</v>
       </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44821</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>0.43402777777777779</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44821</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>0.49652777777777779</v>
       </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44829</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>0.38958333333333334</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>0.40347222222222223</v>
       </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>0.42777777777777776</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>0.46388888888888891</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>0.47083333333333333</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44839</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>0.4375</v>
       </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44839</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44849</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>0.43263888888888891</v>
       </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>15.000000000000027</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44849</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>0.43263888888888891</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>0.44513888888888886</v>
       </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>17.999999999999936</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44867</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>0.43541666666666667</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44867</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>0.46666666666666667</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>29.999999999999972</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44874</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>0.61527777777777781</v>
       </c>
-      <c r="D25" s="5">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="5">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>19.999999999999929</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44874</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.61527777777777781</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.66319444444444442</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E26" s="2">
         <v>0.68402777777777779</v>
       </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="F26" s="6">
+        <f>(E26-D26)*1440</f>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/pole_legend.xlsx
+++ b/data/pole_legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA4D49-095F-4F86-9E82-5BC553DD0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2F6C86-C394-4CB4-9162-865023D07B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25365" yWindow="-28920" windowWidth="18240" windowHeight="28320" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
+    <workbookView xWindow="7395" yWindow="-28950" windowWidth="18240" windowHeight="28320" xr2:uid="{A8390529-83C5-499E-A840-308E7B82A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_lightloggers" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="557">
   <si>
     <t>20937885_2022-06-04_10_56_12_CDT_(Data_CDT).csv</t>
   </si>
@@ -1705,6 +1705,12 @@
   </si>
   <si>
     <t>21126989_2022-11-09_18_07_45_CST_(Data_CST).csv</t>
+  </si>
+  <si>
+    <t>data has wrong date, 9/2</t>
+  </si>
+  <si>
+    <t>data_issue</t>
   </si>
 </sst>
 </file>
@@ -2100,8 +2106,8 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C260" sqref="C260"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2114,7 +2120,7 @@
     <col min="6" max="6" width="18.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -2133,8 +2139,11 @@
       <c r="F1" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44715</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44715</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44715</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44715</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44715</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44715</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44715</v>
       </c>
@@ -2253,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44715</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44715</v>
       </c>
@@ -2287,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44715</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44715</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44715</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44715</v>
       </c>
@@ -2358,7 +2367,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44715</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44715</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44814</v>
       </c>
@@ -4050,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -4121,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -4154,8 +4163,11 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G119" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -4172,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -4189,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44821</v>
       </c>
@@ -4274,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44821</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44821</v>
       </c>
@@ -6230,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44867</v>
       </c>
@@ -6247,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44867</v>
       </c>
@@ -6264,7 +6276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44867</v>
       </c>
@@ -6281,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44874</v>
       </c>
@@ -6297,12 +6309,8 @@
       <c r="E244">
         <v>2</v>
       </c>
-      <c r="G244" t="str">
-        <f t="shared" ref="G244:G268" si="0">LEFT(C244,8)</f>
-        <v>20937885</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44874</v>
       </c>
@@ -6318,12 +6326,8 @@
       <c r="E245">
         <v>1</v>
       </c>
-      <c r="G245" t="str">
-        <f t="shared" si="0"/>
-        <v>20983687</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44874</v>
       </c>
@@ -6339,12 +6343,8 @@
       <c r="E246">
         <v>2</v>
       </c>
-      <c r="G246" t="str">
-        <f t="shared" si="0"/>
-        <v>20983688</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44874</v>
       </c>
@@ -6360,12 +6360,8 @@
       <c r="E247">
         <v>1</v>
       </c>
-      <c r="G247" t="str">
-        <f t="shared" si="0"/>
-        <v>20983689</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44874</v>
       </c>
@@ -6381,12 +6377,8 @@
       <c r="E248">
         <v>2</v>
       </c>
-      <c r="G248" t="str">
-        <f t="shared" si="0"/>
-        <v>20983690</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44874</v>
       </c>
@@ -6402,12 +6394,8 @@
       <c r="E249">
         <v>1</v>
       </c>
-      <c r="G249" t="str">
-        <f t="shared" si="0"/>
-        <v>20983692</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44874</v>
       </c>
@@ -6423,12 +6411,8 @@
       <c r="E250">
         <v>2</v>
       </c>
-      <c r="G250" t="str">
-        <f t="shared" si="0"/>
-        <v>20983765</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44874</v>
       </c>
@@ -6444,12 +6428,8 @@
       <c r="E251">
         <v>1</v>
       </c>
-      <c r="G251" t="str">
-        <f t="shared" si="0"/>
-        <v>20983766</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44874</v>
       </c>
@@ -6465,12 +6445,8 @@
       <c r="E252">
         <v>2</v>
       </c>
-      <c r="G252" t="str">
-        <f t="shared" si="0"/>
-        <v>20983767</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44874</v>
       </c>
@@ -6486,12 +6462,8 @@
       <c r="E253">
         <v>1</v>
       </c>
-      <c r="G253" t="str">
-        <f t="shared" si="0"/>
-        <v>20983768</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44874</v>
       </c>
@@ -6507,12 +6479,8 @@
       <c r="E254">
         <v>2</v>
       </c>
-      <c r="G254" t="str">
-        <f t="shared" si="0"/>
-        <v>20983771</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44874</v>
       </c>
@@ -6528,12 +6496,8 @@
       <c r="E255">
         <v>1</v>
       </c>
-      <c r="G255" t="str">
-        <f t="shared" si="0"/>
-        <v>20983772</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44874</v>
       </c>
@@ -6551,10 +6515,6 @@
       </c>
       <c r="F256" t="s">
         <v>262</v>
-      </c>
-      <c r="G256" t="str">
-        <f t="shared" si="0"/>
-        <v>21126989</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6573,10 +6533,6 @@
       <c r="E257">
         <v>2</v>
       </c>
-      <c r="G257" t="str">
-        <f t="shared" si="0"/>
-        <v>21407807</v>
-      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
@@ -6594,10 +6550,6 @@
       <c r="E258">
         <v>1</v>
       </c>
-      <c r="G258" t="str">
-        <f t="shared" si="0"/>
-        <v>21407808</v>
-      </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
@@ -6615,10 +6567,6 @@
       <c r="E259">
         <v>2</v>
       </c>
-      <c r="G259" t="str">
-        <f t="shared" si="0"/>
-        <v>21407809</v>
-      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
@@ -6636,10 +6584,6 @@
       <c r="E260">
         <v>1</v>
       </c>
-      <c r="G260" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
@@ -6657,10 +6601,6 @@
       <c r="E261">
         <v>2</v>
       </c>
-      <c r="G261" t="str">
-        <f t="shared" si="0"/>
-        <v>21407811</v>
-      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
@@ -6678,10 +6618,6 @@
       <c r="E262">
         <v>1</v>
       </c>
-      <c r="G262" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
@@ -6699,10 +6635,6 @@
       <c r="E263">
         <v>2</v>
       </c>
-      <c r="G263" t="str">
-        <f t="shared" si="0"/>
-        <v>21407813</v>
-      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
@@ -6720,10 +6652,6 @@
       <c r="E264">
         <v>1</v>
       </c>
-      <c r="G264" t="str">
-        <f t="shared" si="0"/>
-        <v>21407814</v>
-      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
@@ -6741,10 +6669,6 @@
       <c r="E265">
         <v>2</v>
       </c>
-      <c r="G265" t="str">
-        <f t="shared" si="0"/>
-        <v>21407815</v>
-      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
@@ -6762,10 +6686,6 @@
       <c r="E266">
         <v>1</v>
       </c>
-      <c r="G266" t="str">
-        <f t="shared" si="0"/>
-        <v>21407816</v>
-      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
@@ -6783,10 +6703,6 @@
       <c r="E267">
         <v>2</v>
       </c>
-      <c r="G267" t="str">
-        <f t="shared" si="0"/>
-        <v>21407817</v>
-      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
@@ -6804,38 +6720,34 @@
       <c r="E268">
         <v>1</v>
       </c>
-      <c r="G268" t="str">
-        <f t="shared" si="0"/>
-        <v>21407818</v>
-      </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G269" t="str">
-        <f t="shared" ref="G269:G273" si="1">LEFT(C269,8)</f>
+        <f t="shared" ref="G269:G273" si="0">LEFT(C269,8)</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G270" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G271" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G272" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G273" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
